--- a/SGA_PCR/Vistas/bin/Debug/LAPTOPS POR VENCER.xlsx
+++ b/SGA_PCR/Vistas/bin/Debug/LAPTOPS POR VENCER.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">Sheet!$A$3:$M$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">Sheet!$A$3:$N$166</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -56,64 +56,1000 @@
     <t>Fin Plazo Alquiler</t>
   </si>
   <si>
-    <t>DAIKIN AIRCONDITIONING PERU S.A.C.</t>
-  </si>
-  <si>
-    <t>20556601152</t>
-  </si>
-  <si>
-    <t>PCR-LAP0779</t>
-  </si>
-  <si>
-    <t>ALQ-331</t>
+    <t>KAM</t>
+  </si>
+  <si>
+    <t>INVERSIONES NORLIMA S.A</t>
+  </si>
+  <si>
+    <t>20602020518</t>
+  </si>
+  <si>
+    <t>MOR-LAP0008</t>
+  </si>
+  <si>
+    <t>ALQ-17</t>
   </si>
   <si>
     <t>HP</t>
   </si>
   <si>
-    <t>15-BS030LA</t>
+    <t>15-DA0015LA</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>CEIGNE KANGURITO</t>
-  </si>
-  <si>
-    <t>20154523317</t>
-  </si>
-  <si>
-    <t>PCR-LAP1021</t>
-  </si>
-  <si>
-    <t>ALQ-495</t>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>GREEN ELECTRONICS S.A.C</t>
+  </si>
+  <si>
+    <t>20392667092</t>
+  </si>
+  <si>
+    <t>MOR-LAP19101008</t>
+  </si>
+  <si>
+    <t>ALQ-43</t>
+  </si>
+  <si>
+    <t>250 G7</t>
+  </si>
+  <si>
+    <t>MOR-LAP19101027</t>
+  </si>
+  <si>
+    <t>ALQ-62</t>
+  </si>
+  <si>
+    <t>MICHAEL PAGE INTERNATIONAL PERU S.R.L.</t>
+  </si>
+  <si>
+    <t>20557108646</t>
+  </si>
+  <si>
+    <t>MOR-LAP19101030</t>
+  </si>
+  <si>
+    <t>ALQ-65</t>
+  </si>
+  <si>
+    <t>SALES360 S.A.C.</t>
+  </si>
+  <si>
+    <t>20604251584</t>
+  </si>
+  <si>
+    <t>PCR-LAP0309</t>
+  </si>
+  <si>
+    <t>ALQ-111</t>
+  </si>
+  <si>
+    <t>14-AC109LA</t>
+  </si>
+  <si>
+    <t>PCR-LAP0408</t>
+  </si>
+  <si>
+    <t>ALQ-153</t>
+  </si>
+  <si>
+    <t>240 G5</t>
+  </si>
+  <si>
+    <t>AKAMAI S.A.C.</t>
+  </si>
+  <si>
+    <t>20606099615</t>
+  </si>
+  <si>
+    <t>PCR-LAP0483</t>
+  </si>
+  <si>
+    <t>ALQ-183</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 450 G3</t>
+  </si>
+  <si>
+    <t>PCR-LAP0549</t>
+  </si>
+  <si>
+    <t>ALQ-210</t>
+  </si>
+  <si>
+    <t>PCR-LAP0564</t>
+  </si>
+  <si>
+    <t>ALQ-217</t>
+  </si>
+  <si>
+    <t>PCR-LAP0583</t>
+  </si>
+  <si>
+    <t>ALQ-231</t>
   </si>
   <si>
     <t>250 G6</t>
   </si>
   <si>
+    <t>VYSNOVA PARTNERS, INC.</t>
+  </si>
+  <si>
+    <t>71802559</t>
+  </si>
+  <si>
+    <t>PCR-LAP0584</t>
+  </si>
+  <si>
+    <t>ALQ-232</t>
+  </si>
+  <si>
     <t>PRIMA AFP S.A.</t>
   </si>
   <si>
     <t>20510398158</t>
   </si>
   <si>
-    <t>PCR-LAP1041</t>
-  </si>
-  <si>
-    <t>ALQ-508</t>
-  </si>
-  <si>
-    <t>AGRICOLA ANDREA S.A.C.</t>
-  </si>
-  <si>
-    <t>20505688903</t>
-  </si>
-  <si>
-    <t>PCR-LAP1058</t>
-  </si>
-  <si>
-    <t>ALQ-517</t>
+    <t>PCR-LAP0632</t>
+  </si>
+  <si>
+    <t>ALQ-252</t>
+  </si>
+  <si>
+    <t>LENOVO</t>
+  </si>
+  <si>
+    <t>V310-15ISK</t>
+  </si>
+  <si>
+    <t>TERRAMOVE S.A.C.</t>
+  </si>
+  <si>
+    <t>20507508503</t>
+  </si>
+  <si>
+    <t>PCR-LAP0700</t>
+  </si>
+  <si>
+    <t>ALQ-290</t>
+  </si>
+  <si>
+    <t>240 G6</t>
+  </si>
+  <si>
+    <t>STARTECH VENTURES S.A.C.</t>
+  </si>
+  <si>
+    <t>20603243766</t>
+  </si>
+  <si>
+    <t>PCR-LAP0774</t>
+  </si>
+  <si>
+    <t>ALQ-328</t>
+  </si>
+  <si>
+    <t>PCR-LAP0789</t>
+  </si>
+  <si>
+    <t>ALQ-338</t>
+  </si>
+  <si>
+    <t>PROBOOK 450 G5</t>
+  </si>
+  <si>
+    <t>MEGASHOW S.A.</t>
+  </si>
+  <si>
+    <t>20431754593</t>
+  </si>
+  <si>
+    <t>PCR-LAP0896</t>
+  </si>
+  <si>
+    <t>ALQ-406</t>
+  </si>
+  <si>
+    <t>PCR-LAP0919</t>
+  </si>
+  <si>
+    <t>ALQ-423</t>
+  </si>
+  <si>
+    <t>PCR-LAP0958</t>
+  </si>
+  <si>
+    <t>ALQ-448</t>
+  </si>
+  <si>
+    <t>ALICORP SAA</t>
+  </si>
+  <si>
+    <t>20100055237</t>
+  </si>
+  <si>
+    <t>PCR-LAP0967</t>
+  </si>
+  <si>
+    <t>ALQ-2063</t>
+  </si>
+  <si>
+    <t>V330-15IKB</t>
+  </si>
+  <si>
+    <t>COREI5</t>
+  </si>
+  <si>
+    <t>PCR-LAP0982</t>
+  </si>
+  <si>
+    <t>ALQ-470</t>
+  </si>
+  <si>
+    <t>PCR-LAP1010</t>
+  </si>
+  <si>
+    <t>001-14678</t>
+  </si>
+  <si>
+    <t>PCR-LAP1067</t>
+  </si>
+  <si>
+    <t>ALQ-524</t>
+  </si>
+  <si>
+    <t>FASE DOS S.A.C.</t>
+  </si>
+  <si>
+    <t>20472936426</t>
+  </si>
+  <si>
+    <t>PCR-LAP1088</t>
+  </si>
+  <si>
+    <t>ALQ-540</t>
+  </si>
+  <si>
+    <t>FUJITA CORPORATION SUCURSAL DEL PERU</t>
+  </si>
+  <si>
+    <t>20415192071</t>
+  </si>
+  <si>
+    <t>PCR-LAP1101</t>
+  </si>
+  <si>
+    <t>ALQ-548</t>
+  </si>
+  <si>
+    <t>CLASS COMPLEMENTS SAC</t>
+  </si>
+  <si>
+    <t>20329790682</t>
+  </si>
+  <si>
+    <t>PCR-LAP1132</t>
+  </si>
+  <si>
+    <t>ALQ-568</t>
+  </si>
+  <si>
+    <t>320-15IKB</t>
+  </si>
+  <si>
+    <t>PCR-LAP1136</t>
+  </si>
+  <si>
+    <t>ALQ-571</t>
+  </si>
+  <si>
+    <t>PCR-LAP1158</t>
+  </si>
+  <si>
+    <t>ALQ-590</t>
+  </si>
+  <si>
+    <t>PCR-LAP1182</t>
+  </si>
+  <si>
+    <t>ALQ-607</t>
+  </si>
+  <si>
+    <t>PCR-LAP1183</t>
+  </si>
+  <si>
+    <t>ALQ-608</t>
+  </si>
+  <si>
+    <t>PCR-LAP1190</t>
+  </si>
+  <si>
+    <t>ALQ-614</t>
+  </si>
+  <si>
+    <t>ILLUSIONE CONSTRUCTORA E INMOBILIARIA S.A.C.</t>
+  </si>
+  <si>
+    <t>20547858281</t>
+  </si>
+  <si>
+    <t>PCR-LAP1204</t>
+  </si>
+  <si>
+    <t>ALQ-625</t>
+  </si>
+  <si>
+    <t>PCR-LAP1208</t>
+  </si>
+  <si>
+    <t>ALQ-629</t>
+  </si>
+  <si>
+    <t>PCR-LAP1213</t>
+  </si>
+  <si>
+    <t>ALQ-633</t>
+  </si>
+  <si>
+    <t>PCR-LAP1216</t>
+  </si>
+  <si>
+    <t>ALQ-636</t>
+  </si>
+  <si>
+    <t>PCR-LAP1217</t>
+  </si>
+  <si>
+    <t>ALQ-637</t>
+  </si>
+  <si>
+    <t>PCR-LAP1257</t>
+  </si>
+  <si>
+    <t>ALQ-669</t>
+  </si>
+  <si>
+    <t>PCR-LAP1261</t>
+  </si>
+  <si>
+    <t>ALQ-672</t>
+  </si>
+  <si>
+    <t>CONSTRUCTORA KAMANQA S.A.C.</t>
+  </si>
+  <si>
+    <t>20601449405</t>
+  </si>
+  <si>
+    <t>PCR-LAP1274</t>
+  </si>
+  <si>
+    <t>ALQ-682</t>
+  </si>
+  <si>
+    <t>PCR-LAP1280</t>
+  </si>
+  <si>
+    <t>ALQ-687</t>
+  </si>
+  <si>
+    <t>PCR-LAP1298</t>
+  </si>
+  <si>
+    <t>ALQ-701</t>
+  </si>
+  <si>
+    <t>PCR-LAP1304</t>
+  </si>
+  <si>
+    <t>ALQ-2078</t>
+  </si>
+  <si>
+    <t>PCR-LAP1311</t>
+  </si>
+  <si>
+    <t>ALQ-711</t>
+  </si>
+  <si>
+    <t>PCR-LAP1315</t>
+  </si>
+  <si>
+    <t>ALQ-715</t>
+  </si>
+  <si>
+    <t>PCR-LAP1316</t>
+  </si>
+  <si>
+    <t>ALQ-716</t>
+  </si>
+  <si>
+    <t>PCR-LAP1397</t>
+  </si>
+  <si>
+    <t>PCR-LAP1399</t>
+  </si>
+  <si>
+    <t>ALQ-784</t>
+  </si>
+  <si>
+    <t>PCR-LAP1426</t>
+  </si>
+  <si>
+    <t>ALQ-808</t>
+  </si>
+  <si>
+    <t>PCR-LAP1473</t>
+  </si>
+  <si>
+    <t>ALQ-846</t>
+  </si>
+  <si>
+    <t>THINKPAD E580</t>
+  </si>
+  <si>
+    <t>WODEN DEL PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>20517088227</t>
+  </si>
+  <si>
+    <t>PCR-LAP1533</t>
+  </si>
+  <si>
+    <t>001-14597</t>
+  </si>
+  <si>
+    <t>COREI7</t>
+  </si>
+  <si>
+    <t>MOR-LAP0006</t>
+  </si>
+  <si>
+    <t>MANPOWER PERU S.A.</t>
+  </si>
+  <si>
+    <t>20304289512</t>
+  </si>
+  <si>
+    <t>PCR-LAP19091062</t>
+  </si>
+  <si>
+    <t>ALQ-2057</t>
+  </si>
+  <si>
+    <t>PCR-LAP19091073</t>
+  </si>
+  <si>
+    <t>ALQ-982</t>
+  </si>
+  <si>
+    <t>PCR-LAP19101018</t>
+  </si>
+  <si>
+    <t>ALQ-1004</t>
+  </si>
+  <si>
+    <t>PCR-LAP19101090</t>
+  </si>
+  <si>
+    <t>ALQ-1055</t>
+  </si>
+  <si>
+    <t>INTERACTIS S.A.C.</t>
+  </si>
+  <si>
+    <t>20605637257</t>
+  </si>
+  <si>
+    <t>PCR-LAP19102025</t>
+  </si>
+  <si>
+    <t>ALQ-1057</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>LATITUDE 7490</t>
+  </si>
+  <si>
+    <t>PCR-LAP19111047</t>
+  </si>
+  <si>
+    <t>ALQ-1116</t>
+  </si>
+  <si>
+    <t>PCR-LAP20011001</t>
+  </si>
+  <si>
+    <t>ALQ-1158</t>
+  </si>
+  <si>
+    <t>LATITUDE 3500</t>
+  </si>
+  <si>
+    <t>PCR-LAP20031046</t>
+  </si>
+  <si>
+    <t>ALQ-1227</t>
+  </si>
+  <si>
+    <t>RIMAC SEGUROS Y REASEGUROS</t>
+  </si>
+  <si>
+    <t>20100041953</t>
+  </si>
+  <si>
+    <t>PCR-LAP20031051</t>
+  </si>
+  <si>
+    <t>ALQ-1232</t>
+  </si>
+  <si>
+    <t>ALIGNET S.A.C.</t>
+  </si>
+  <si>
+    <t>20333372216</t>
+  </si>
+  <si>
+    <t>PCR-LAP20031052</t>
+  </si>
+  <si>
+    <t>ALQ-1233</t>
+  </si>
+  <si>
+    <t>RESITER PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>20537921464</t>
+  </si>
+  <si>
+    <t>PCR-LAP20031071</t>
+  </si>
+  <si>
+    <t>ALQ-1250</t>
+  </si>
+  <si>
+    <t>PCR-LAP20031072</t>
+  </si>
+  <si>
+    <t>ALQ-1251</t>
+  </si>
+  <si>
+    <t>PCR-LAP20031082</t>
+  </si>
+  <si>
+    <t>ALQ-1261</t>
+  </si>
+  <si>
+    <t>PCR-LAP20031110</t>
+  </si>
+  <si>
+    <t>ALQ-1288</t>
+  </si>
+  <si>
+    <t>MGA INGENIEROS CONTRATISTAS S.A.C.</t>
+  </si>
+  <si>
+    <t>20538355543</t>
+  </si>
+  <si>
+    <t>PCR-LAP20031117</t>
+  </si>
+  <si>
+    <t>001-14723</t>
+  </si>
+  <si>
+    <t>PCR-LAP20031139</t>
+  </si>
+  <si>
+    <t>PCR-LAP20031140</t>
+  </si>
+  <si>
+    <t>ALQ-1317</t>
+  </si>
+  <si>
+    <t>PCR-LAP20031141</t>
+  </si>
+  <si>
+    <t>ALQ-1318</t>
+  </si>
+  <si>
+    <t>PCR-LAP20031156</t>
+  </si>
+  <si>
+    <t>ALQ-1331</t>
+  </si>
+  <si>
+    <t>PCR-LAP20031157</t>
+  </si>
+  <si>
+    <t>001-14787</t>
+  </si>
+  <si>
+    <t>PCR-LAP20031057</t>
+  </si>
+  <si>
+    <t>PCR-LAP20031158</t>
+  </si>
+  <si>
+    <t>PCR-LAP20031160</t>
+  </si>
+  <si>
+    <t>PCR-LAP20031167</t>
+  </si>
+  <si>
+    <t>ALQ-1342</t>
+  </si>
+  <si>
+    <t>PCR-LAP20031185</t>
+  </si>
+  <si>
+    <t>PIXED SOCIEDAD ANÓNIMA CERRADA - PIXED S.A.C.</t>
+  </si>
+  <si>
+    <t>20600916182</t>
+  </si>
+  <si>
+    <t>PCR-LAP20034004</t>
+  </si>
+  <si>
+    <t>ALQ-1369</t>
+  </si>
+  <si>
+    <t>G3 15</t>
+  </si>
+  <si>
+    <t>ADECCO CONSULTING S.A.</t>
+  </si>
+  <si>
+    <t>20503980216</t>
+  </si>
+  <si>
+    <t>PCR-LAP20041001</t>
+  </si>
+  <si>
+    <t>ALQ-1388</t>
+  </si>
+  <si>
+    <t>INSPIRON 3593</t>
+  </si>
+  <si>
+    <t>VIDENZA CONSULTORES S.A.C.</t>
+  </si>
+  <si>
+    <t>20555936801</t>
+  </si>
+  <si>
+    <t>PCR-LAP20041035</t>
+  </si>
+  <si>
+    <t>ALQ-1418</t>
+  </si>
+  <si>
+    <t>PCR-LAP20041042</t>
+  </si>
+  <si>
+    <t>VOSTRO 3490</t>
+  </si>
+  <si>
+    <t>PCR-LAP20041043</t>
+  </si>
+  <si>
+    <t>ALQ-1423</t>
+  </si>
+  <si>
+    <t>PCR-LAP20041049</t>
+  </si>
+  <si>
+    <t>PCR-LAP20041054</t>
+  </si>
+  <si>
+    <t>ALQ-1432</t>
+  </si>
+  <si>
+    <t>PCR-LAP20041056</t>
+  </si>
+  <si>
+    <t>ALQ-1434</t>
+  </si>
+  <si>
+    <t>PCR-LAP20041077</t>
+  </si>
+  <si>
+    <t>ALQ-1450</t>
+  </si>
+  <si>
+    <t>INCENTIVOS NAFANTO S.A.C.</t>
+  </si>
+  <si>
+    <t>20600293231</t>
+  </si>
+  <si>
+    <t>PCR-LAP20041079</t>
+  </si>
+  <si>
+    <t>ALQ-2045</t>
+  </si>
+  <si>
+    <t>PCR-LAP20041089</t>
+  </si>
+  <si>
+    <t>PCR-LAP20041099</t>
+  </si>
+  <si>
+    <t>ALQ-1468</t>
+  </si>
+  <si>
+    <t>PCR-LAP20041112</t>
+  </si>
+  <si>
+    <t>ALQ-1479</t>
+  </si>
+  <si>
+    <t>PCR-LAP20041142</t>
+  </si>
+  <si>
+    <t>ALQ-1500</t>
+  </si>
+  <si>
+    <t>PCR-LAP20041148</t>
+  </si>
+  <si>
+    <t>ALQ-1506</t>
+  </si>
+  <si>
+    <t>PCR-LAP20041152</t>
+  </si>
+  <si>
+    <t>ALQ-1509</t>
+  </si>
+  <si>
+    <t>INSPIRON 3493</t>
+  </si>
+  <si>
+    <t>PCR-LAP20041167</t>
+  </si>
+  <si>
+    <t>ALQ-1516</t>
+  </si>
+  <si>
+    <t>PCR-LAP20041181</t>
+  </si>
+  <si>
+    <t>ALQ-1522</t>
+  </si>
+  <si>
+    <t>PCR-LAP20041184</t>
+  </si>
+  <si>
+    <t>ALQ-1523</t>
+  </si>
+  <si>
+    <t>PCR-LAP20041193</t>
+  </si>
+  <si>
+    <t>ALQ-1526</t>
+  </si>
+  <si>
+    <t>PCR-LAP20041201</t>
+  </si>
+  <si>
+    <t>ALQ-1528</t>
+  </si>
+  <si>
+    <t>PCR-LAP20041262</t>
+  </si>
+  <si>
+    <t>001-14815</t>
+  </si>
+  <si>
+    <t>LATITUDE 3400</t>
+  </si>
+  <si>
+    <t>PCR-LAP20031105</t>
+  </si>
+  <si>
+    <t>TIRADO GAMARRA JUAN JOSE</t>
+  </si>
+  <si>
+    <t>10078109811</t>
+  </si>
+  <si>
+    <t>PCR-LAP20041281</t>
+  </si>
+  <si>
+    <t>001-14884</t>
+  </si>
+  <si>
+    <t>PCR-LAP20064092</t>
+  </si>
+  <si>
+    <t>PCR-LAP20071002</t>
+  </si>
+  <si>
+    <t>ALQ-1731</t>
+  </si>
+  <si>
+    <t>PCR-LAP20071003</t>
+  </si>
+  <si>
+    <t>ALQ-1732</t>
+  </si>
+  <si>
+    <t>PCR-LAP20071004</t>
+  </si>
+  <si>
+    <t>ALQ-1733</t>
+  </si>
+  <si>
+    <t>PCR-LAP20071005</t>
+  </si>
+  <si>
+    <t>ALQ-1734</t>
+  </si>
+  <si>
+    <t>PCR-LAP20071026</t>
+  </si>
+  <si>
+    <t>ALQ-1754</t>
+  </si>
+  <si>
+    <t>VIVA G Y M S.A.</t>
+  </si>
+  <si>
+    <t>20493040643</t>
+  </si>
+  <si>
+    <t>PCR-LAP20072065</t>
+  </si>
+  <si>
+    <t>ALQ-1840</t>
+  </si>
+  <si>
+    <t>LATITUDE 5400</t>
+  </si>
+  <si>
+    <t>PCR-LAP20072082</t>
+  </si>
+  <si>
+    <t>ALQ-1850</t>
+  </si>
+  <si>
+    <t>PCR-LAP20072089</t>
+  </si>
+  <si>
+    <t>ALQ-1856</t>
+  </si>
+  <si>
+    <t>PCR-LAP20072095</t>
+  </si>
+  <si>
+    <t>ALQ-1862</t>
+  </si>
+  <si>
+    <t>EMERGENT COLD PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>20603281994</t>
+  </si>
+  <si>
+    <t>PCR-LAP20074002</t>
+  </si>
+  <si>
+    <t>ALQ-1863</t>
+  </si>
+  <si>
+    <t>PROBOOK 450 G7</t>
+  </si>
+  <si>
+    <t>PCR-LAP20074003</t>
+  </si>
+  <si>
+    <t>ALQ-1864</t>
+  </si>
+  <si>
+    <t>PCR-LAP20074004</t>
+  </si>
+  <si>
+    <t>ALQ-1865</t>
+  </si>
+  <si>
+    <t>PCR-LAP20074005</t>
+  </si>
+  <si>
+    <t>ALQ-1866</t>
+  </si>
+  <si>
+    <t>PCR-LAP20074006</t>
+  </si>
+  <si>
+    <t>ALQ-1867</t>
+  </si>
+  <si>
+    <t>PCR-LAP20074007</t>
+  </si>
+  <si>
+    <t>ALQ-1868</t>
+  </si>
+  <si>
+    <t>PCR-LAP20074008</t>
+  </si>
+  <si>
+    <t>ALQ-1869</t>
+  </si>
+  <si>
+    <t>PCR-LAP20074009</t>
+  </si>
+  <si>
+    <t>ALQ-1870</t>
+  </si>
+  <si>
+    <t>PCR-LAP20074010</t>
+  </si>
+  <si>
+    <t>ALQ-1871</t>
+  </si>
+  <si>
+    <t>PCR-LAP20074011</t>
+  </si>
+  <si>
+    <t>ALQ-1872</t>
+  </si>
+  <si>
+    <t>PCR-LAP20074012</t>
+  </si>
+  <si>
+    <t>ALQ-1873</t>
+  </si>
+  <si>
+    <t>QUANTUM TALENT S.A.C.</t>
+  </si>
+  <si>
+    <t>20601107971</t>
+  </si>
+  <si>
+    <t>PCR-MAC0021</t>
+  </si>
+  <si>
+    <t>ALQ-1938</t>
+  </si>
+  <si>
+    <t>APPLE</t>
+  </si>
+  <si>
+    <t>MACBOOK PRO</t>
+  </si>
+  <si>
+    <t>PCR-MAC20056010</t>
+  </si>
+  <si>
+    <t>ALQ-2000</t>
+  </si>
+  <si>
+    <t>PCR-LAP20041245</t>
+  </si>
+  <si>
+    <t>PCR-LAP1046</t>
+  </si>
+  <si>
+    <t>PCR-LAP1056</t>
+  </si>
+  <si>
+    <t>PCR-LAP1112</t>
+  </si>
+  <si>
+    <t>PCR-LAP1130</t>
+  </si>
+  <si>
+    <t>PCR-LAP1407</t>
+  </si>
+  <si>
+    <t>PCR-LAP1428</t>
   </si>
   <si>
     <t>BODEGAS Y VIÑEDOS TABERNERO S.A.C.</t>
@@ -122,241 +1058,184 @@
     <t>20104505784</t>
   </si>
   <si>
-    <t>PCR-LAP1134</t>
-  </si>
-  <si>
-    <t>ALQ-569</t>
-  </si>
-  <si>
-    <t>LENOVO</t>
-  </si>
-  <si>
-    <t>320-15IKB</t>
-  </si>
-  <si>
-    <t>PCR-LAP1188</t>
-  </si>
-  <si>
-    <t>ALQ-613</t>
-  </si>
-  <si>
-    <t>CONSORCIO FLESAN - ICAFAL</t>
-  </si>
-  <si>
-    <t>20604647381</t>
-  </si>
-  <si>
-    <t>PCR-LAP1279</t>
-  </si>
-  <si>
-    <t>ALQ-686</t>
-  </si>
-  <si>
-    <t>PROBOOK 450 G5</t>
-  </si>
-  <si>
-    <t>BINNA CORPORATION S.A.C.</t>
-  </si>
-  <si>
-    <t>20547907249</t>
-  </si>
-  <si>
-    <t>PCR-LAP19101010</t>
-  </si>
-  <si>
-    <t>ALQ-996</t>
-  </si>
-  <si>
-    <t>250 G7</t>
-  </si>
-  <si>
-    <t>CORPORACION DARUCHI S.A.C.</t>
-  </si>
-  <si>
-    <t>20515314424</t>
-  </si>
-  <si>
-    <t>PCR-LAP19111021</t>
-  </si>
-  <si>
-    <t>ALQ-1092</t>
-  </si>
-  <si>
-    <t>PCR-LAP19111027</t>
-  </si>
-  <si>
-    <t>ALQ-1098</t>
-  </si>
-  <si>
-    <t>MICHAEL PAGE INTERNATIONAL PERU S.R.L.</t>
-  </si>
-  <si>
-    <t>20557108646</t>
-  </si>
-  <si>
-    <t>PCR-LAP19111029</t>
-  </si>
-  <si>
-    <t>ALQ-1100</t>
-  </si>
-  <si>
-    <t>AECOM TECHNICAL SERVICES SUCURSAL DEL PERU</t>
-  </si>
-  <si>
-    <t>20600654871</t>
-  </si>
-  <si>
-    <t>PCR-LAP20031068</t>
-  </si>
-  <si>
-    <t>ALQ-1247</t>
-  </si>
-  <si>
-    <t>DELL</t>
-  </si>
-  <si>
-    <t>LATITUDE 3500</t>
-  </si>
-  <si>
-    <t>PCR-LAP20031109</t>
-  </si>
-  <si>
-    <t>ALQ-1287</t>
-  </si>
-  <si>
-    <t>PCR-LAP20031123</t>
-  </si>
-  <si>
-    <t>ALQ-1300</t>
-  </si>
-  <si>
-    <t>JUST B S.A.C.</t>
-  </si>
-  <si>
-    <t>20605383344</t>
-  </si>
-  <si>
-    <t>PCR-LAP20041106</t>
-  </si>
-  <si>
-    <t>001-14602</t>
-  </si>
-  <si>
-    <t>VOSTRO 3490</t>
-  </si>
-  <si>
-    <t>COREI5</t>
-  </si>
-  <si>
-    <t>INNOVA AMBIENTAL S.A.</t>
-  </si>
-  <si>
-    <t>20302891452</t>
-  </si>
-  <si>
-    <t>PCR-LAP20072064</t>
-  </si>
-  <si>
-    <t>001-14418</t>
-  </si>
-  <si>
-    <t>LATITUDE 5400</t>
-  </si>
-  <si>
-    <t>INFINET S.A.C.</t>
-  </si>
-  <si>
-    <t>20545287286</t>
-  </si>
-  <si>
-    <t>PCR-LAP20091017</t>
-  </si>
-  <si>
-    <t>ALQ-1902</t>
-  </si>
-  <si>
-    <t>THINKPAD T490</t>
-  </si>
-  <si>
-    <t>SMART RISK SOLUTIONS SOCIEDAD ANONIMA CERRADA</t>
-  </si>
-  <si>
-    <t>20604064032</t>
-  </si>
-  <si>
-    <t>PCR-MAC20095008</t>
-  </si>
-  <si>
-    <t>ALQ-2022</t>
-  </si>
-  <si>
-    <t>APPLE</t>
-  </si>
-  <si>
-    <t>MACBOOK PRO</t>
-  </si>
-  <si>
-    <t>PCR-LAP0589</t>
-  </si>
-  <si>
-    <t>ALQ-179</t>
-  </si>
-  <si>
-    <t>14-BS026LA</t>
-  </si>
-  <si>
-    <t>PCR-LAP1450</t>
-  </si>
-  <si>
-    <t>001-14548</t>
-  </si>
-  <si>
-    <t>COREI7</t>
-  </si>
-  <si>
-    <t>ANTUT ADVISORS SOCIEDAD ANONIMA CERRADA</t>
-  </si>
-  <si>
-    <t>20603289600</t>
-  </si>
-  <si>
-    <t>PCR-LAP19111030</t>
-  </si>
-  <si>
-    <t>001-14605</t>
-  </si>
-  <si>
-    <t>PCR-LAP20041017</t>
-  </si>
-  <si>
-    <t>001-14604</t>
-  </si>
-  <si>
-    <t>PCR-LAP20041021</t>
-  </si>
-  <si>
-    <t>001-14603</t>
-  </si>
-  <si>
-    <t>VIDENZA CONSULTORES S.A.C.</t>
-  </si>
-  <si>
-    <t>20555936801</t>
-  </si>
-  <si>
-    <t>PCR-LAP20071060</t>
-  </si>
-  <si>
-    <t>ALQ-925</t>
-  </si>
-  <si>
-    <t>PCR-LAP20072076</t>
-  </si>
-  <si>
-    <t>PCR-LAP20072079</t>
-  </si>
-  <si>
-    <t>PCR-LAP20072094</t>
+    <t>PCR-LAP1433</t>
+  </si>
+  <si>
+    <t>001-14722</t>
+  </si>
+  <si>
+    <t>PCR-LAP1436</t>
+  </si>
+  <si>
+    <t>PCR-LAP1480</t>
+  </si>
+  <si>
+    <t>PCR-LAP19101061</t>
+  </si>
+  <si>
+    <t>001-14643</t>
+  </si>
+  <si>
+    <t>PCR-LAP20031146</t>
+  </si>
+  <si>
+    <t>PCR-LAP20031153</t>
+  </si>
+  <si>
+    <t>PCR-LAP20031174</t>
+  </si>
+  <si>
+    <t>PCR-LAP20031180</t>
+  </si>
+  <si>
+    <t>PCR-LAP20041265</t>
+  </si>
+  <si>
+    <t>PCR-LAP20064003</t>
+  </si>
+  <si>
+    <t>PCR-LAP20064042</t>
+  </si>
+  <si>
+    <t>PCR-LAP20064084</t>
+  </si>
+  <si>
+    <t>PCR-LAP20064100</t>
+  </si>
+  <si>
+    <t>PCR-LAP20064104</t>
+  </si>
+  <si>
+    <t>ALQ-2061</t>
+  </si>
+  <si>
+    <t>PCR-LAP20071061</t>
+  </si>
+  <si>
+    <t>PCR-LAP20071062</t>
+  </si>
+  <si>
+    <t>PCR-LAP20071063</t>
+  </si>
+  <si>
+    <t>PCR-LAP20071064</t>
+  </si>
+  <si>
+    <t>PCR-LAP20071065</t>
+  </si>
+  <si>
+    <t>PCR-LAP20071066</t>
+  </si>
+  <si>
+    <t>PCR-LAP20071067</t>
+  </si>
+  <si>
+    <t>PCR-LAP0542</t>
+  </si>
+  <si>
+    <t>ALQ-204</t>
+  </si>
+  <si>
+    <t>PCR-LAP1086</t>
+  </si>
+  <si>
+    <t>PCR-LAP1113</t>
+  </si>
+  <si>
+    <t>PCR-LAP20031090</t>
+  </si>
+  <si>
+    <t>MOR-LAP19101043</t>
+  </si>
+  <si>
+    <t>PCR-LAP20111018</t>
+  </si>
+  <si>
+    <t>001-14727</t>
+  </si>
+  <si>
+    <t>Thinkpad T15</t>
+  </si>
+  <si>
+    <t>PCR-LAP1030</t>
+  </si>
+  <si>
+    <t>PCR-LAP20111021</t>
+  </si>
+  <si>
+    <t>PCR-LAP1199</t>
+  </si>
+  <si>
+    <t>PCR-LAP20111022</t>
+  </si>
+  <si>
+    <t>PCR-LAP0985</t>
+  </si>
+  <si>
+    <t>PCR-LAP20111023</t>
+  </si>
+  <si>
+    <t>001-14727-1</t>
+  </si>
+  <si>
+    <t>PCR-LAP1218</t>
+  </si>
+  <si>
+    <t>PCR-LAP20111024</t>
+  </si>
+  <si>
+    <t>001-14727-3</t>
+  </si>
+  <si>
+    <t>PCR-LAP1206</t>
+  </si>
+  <si>
+    <t>PCR-LAP20111026</t>
+  </si>
+  <si>
+    <t>001-14727-2</t>
+  </si>
+  <si>
+    <t>PCR-LAP1363</t>
+  </si>
+  <si>
+    <t>RAPPI S.A.C.</t>
+  </si>
+  <si>
+    <t>20602985971</t>
+  </si>
+  <si>
+    <t>PCR-LAP20111004</t>
+  </si>
+  <si>
+    <t>001-14654</t>
+  </si>
+  <si>
+    <t>ThinkPad E15</t>
+  </si>
+  <si>
+    <t>PCR-LAP20111009</t>
+  </si>
+  <si>
+    <t>001-14653</t>
+  </si>
+  <si>
+    <t>PCR-LAP20111013</t>
+  </si>
+  <si>
+    <t>PCR-LAP20111014</t>
+  </si>
+  <si>
+    <t>001-14651</t>
+  </si>
+  <si>
+    <t>PCR-MAC20115001</t>
+  </si>
+  <si>
+    <t>001-14588</t>
+  </si>
+  <si>
+    <t>MACBOOK AIR</t>
   </si>
 </sst>
 </file>
@@ -364,7 +1243,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
+    <numFmt numFmtId="164" formatCode="d/MM/yyyy"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -732,6 +1611,7 @@
     <col min="11" max="11" width="20" customWidth="1" style="1"/>
     <col min="12" max="12" width="14.29" customWidth="1" style="4"/>
     <col min="13" max="13" width="14.29" customWidth="1" style="4"/>
+    <col min="14" max="14" width="10.71" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -780,95 +1660,104 @@
       <c t="s" r="M3" s="6">
         <v>13</v>
       </c>
+      <c t="s" r="N3" s="6">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c t="s" r="A4" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="B4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c t="s" r="C4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c t="s" r="D4" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c t="s" r="E4" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="F4" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2">
         <v>15.6</v>
       </c>
       <c t="s" r="H4" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="I4" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
       </c>
       <c t="s" r="K4" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L4" s="4">
-        <v>44107</v>
+        <v>44113</v>
       </c>
       <c r="M4" s="4">
-        <v>44167</v>
+        <v>44173</v>
+      </c>
+      <c t="s" r="N4" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c t="s" r="A5" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c t="s" r="B5" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c t="s" r="C5" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c t="s" r="D5" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c t="s" r="E5" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="F5" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2">
         <v>15.6</v>
       </c>
       <c t="s" r="H5" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="I5" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
       <c t="s" r="K5" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="4">
-        <v>44107</v>
+        <v>44112</v>
       </c>
       <c r="M5" s="4">
-        <v>44167</v>
+        <v>44172</v>
+      </c>
+      <c t="s" r="N5" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c t="s" r="A6" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c t="s" r="B6" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c t="s" r="C6" s="1">
         <v>28</v>
@@ -877,31 +1766,34 @@
         <v>29</v>
       </c>
       <c t="s" r="E6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="F6" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2">
         <v>15.6</v>
       </c>
       <c t="s" r="H6" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="I6" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c t="s" r="K6" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" s="4">
-        <v>44107</v>
+        <v>44113</v>
       </c>
       <c r="M6" s="4">
-        <v>44167</v>
+        <v>44173</v>
+      </c>
+      <c t="s" r="N6" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -918,31 +1810,34 @@
         <v>33</v>
       </c>
       <c t="s" r="E7" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="F7" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2">
         <v>15.6</v>
       </c>
       <c t="s" r="H7" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="I7" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
       </c>
       <c t="s" r="K7" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L7" s="4">
-        <v>44107</v>
+        <v>44113</v>
       </c>
       <c r="M7" s="4">
-        <v>44167</v>
+        <v>44173</v>
+      </c>
+      <c t="s" r="N7" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -959,72 +1854,78 @@
         <v>37</v>
       </c>
       <c t="s" r="E8" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F8" s="1">
         <v>38</v>
       </c>
-      <c t="s" r="F8" s="1">
-        <v>39</v>
-      </c>
       <c r="G8" s="2">
-        <v>15.6</v>
+        <v>14</v>
       </c>
       <c t="s" r="H8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="I8" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c t="s" r="K8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L8" s="4">
-        <v>44107</v>
+        <v>44115</v>
       </c>
       <c r="M8" s="4">
-        <v>44167</v>
+        <v>44175</v>
+      </c>
+      <c t="s" r="N8" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c t="s" r="A9" s="1">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c t="s" r="B9" s="1">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c t="s" r="C9" s="1">
+        <v>39</v>
+      </c>
+      <c t="s" r="D9" s="1">
         <v>40</v>
       </c>
-      <c t="s" r="D9" s="1">
+      <c t="s" r="E9" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F9" s="1">
         <v>41</v>
       </c>
-      <c t="s" r="E9" s="1">
-        <v>38</v>
-      </c>
-      <c t="s" r="F9" s="1">
-        <v>39</v>
-      </c>
       <c r="G9" s="2">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c t="s" r="H9" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="I9" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
       <c t="s" r="K9" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L9" s="4">
-        <v>44107</v>
+        <v>44112</v>
       </c>
       <c r="M9" s="4">
-        <v>44167</v>
+        <v>44172</v>
+      </c>
+      <c t="s" r="N9" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -1041,7 +1942,7 @@
         <v>45</v>
       </c>
       <c t="s" r="E10" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="F10" s="1">
         <v>46</v>
@@ -1050,851 +1951,6898 @@
         <v>15.6</v>
       </c>
       <c t="s" r="H10" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="I10" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
       <c t="s" r="K10" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L10" s="4">
-        <v>44107</v>
+        <v>44118</v>
       </c>
       <c r="M10" s="4">
-        <v>44167</v>
+        <v>44178</v>
+      </c>
+      <c t="s" r="N10" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c t="s" r="A11" s="1">
+        <v>42</v>
+      </c>
+      <c t="s" r="B11" s="1">
+        <v>43</v>
+      </c>
+      <c t="s" r="C11" s="1">
         <v>47</v>
       </c>
-      <c t="s" r="B11" s="1">
+      <c t="s" r="D11" s="1">
         <v>48</v>
       </c>
-      <c t="s" r="C11" s="1">
-        <v>49</v>
-      </c>
-      <c t="s" r="D11" s="1">
-        <v>50</v>
-      </c>
       <c t="s" r="E11" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="F11" s="1">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G11" s="2">
         <v>15.6</v>
       </c>
       <c t="s" r="H11" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="I11" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
       </c>
       <c t="s" r="K11" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L11" s="4">
-        <v>44107</v>
+        <v>44118</v>
       </c>
       <c r="M11" s="4">
-        <v>44167</v>
+        <v>44178</v>
+      </c>
+      <c t="s" r="N11" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c t="s" r="A12" s="1">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c t="s" r="B12" s="1">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c t="s" r="C12" s="1">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c t="s" r="D12" s="1">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c t="s" r="E12" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="F12" s="1">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G12" s="2">
         <v>15.6</v>
       </c>
       <c t="s" r="H12" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="I12" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
       </c>
       <c t="s" r="K12" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L12" s="4">
-        <v>44107</v>
+        <v>44118</v>
       </c>
       <c r="M12" s="4">
-        <v>44167</v>
+        <v>44178</v>
+      </c>
+      <c t="s" r="N12" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c t="s" r="A13" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c t="s" r="B13" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c t="s" r="C13" s="1">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c t="s" r="D13" s="1">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c t="s" r="E13" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="F13" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G13" s="2">
         <v>15.6</v>
       </c>
       <c t="s" r="H13" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="I13" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
       </c>
       <c t="s" r="K13" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L13" s="4">
-        <v>44107</v>
+        <v>44112</v>
       </c>
       <c r="M13" s="4">
-        <v>44167</v>
+        <v>44172</v>
+      </c>
+      <c t="s" r="N13" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c t="s" r="A14" s="1">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c t="s" r="B14" s="1">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c t="s" r="C14" s="1">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c t="s" r="D14" s="1">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c t="s" r="E14" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="F14" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G14" s="2">
         <v>15.6</v>
       </c>
       <c t="s" r="H14" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="I14" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
       </c>
       <c t="s" r="K14" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L14" s="4">
-        <v>44107</v>
+        <v>44118</v>
       </c>
       <c r="M14" s="4">
-        <v>44167</v>
+        <v>44178</v>
+      </c>
+      <c t="s" r="N14" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c t="s" r="A15" s="1">
+        <v>58</v>
+      </c>
+      <c t="s" r="B15" s="1">
+        <v>59</v>
+      </c>
+      <c t="s" r="C15" s="1">
+        <v>60</v>
+      </c>
+      <c t="s" r="D15" s="1">
+        <v>61</v>
+      </c>
+      <c t="s" r="E15" s="1">
         <v>62</v>
       </c>
-      <c t="s" r="B15" s="1">
+      <c t="s" r="F15" s="1">
         <v>63</v>
       </c>
-      <c t="s" r="C15" s="1">
-        <v>64</v>
-      </c>
-      <c t="s" r="D15" s="1">
-        <v>65</v>
-      </c>
-      <c t="s" r="E15" s="1">
-        <v>66</v>
-      </c>
-      <c t="s" r="F15" s="1">
-        <v>67</v>
-      </c>
       <c r="G15" s="2">
         <v>15.6</v>
       </c>
       <c t="s" r="H15" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="I15" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
       </c>
       <c t="s" r="K15" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L15" s="4">
-        <v>44107</v>
+        <v>44118</v>
       </c>
       <c r="M15" s="4">
-        <v>44167</v>
+        <v>44178</v>
+      </c>
+      <c t="s" r="N15" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c t="s" r="A16" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="B16" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="C16" s="1">
+        <v>66</v>
+      </c>
+      <c t="s" r="D16" s="1">
+        <v>67</v>
+      </c>
+      <c t="s" r="E16" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F16" s="1">
         <v>68</v>
       </c>
-      <c t="s" r="D16" s="1">
-        <v>69</v>
-      </c>
-      <c t="s" r="E16" s="1">
-        <v>66</v>
-      </c>
-      <c t="s" r="F16" s="1">
-        <v>67</v>
-      </c>
       <c r="G16" s="2">
-        <v>15.6</v>
+        <v>14</v>
       </c>
       <c t="s" r="H16" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="I16" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
       </c>
       <c t="s" r="K16" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L16" s="4">
-        <v>44107</v>
+        <v>44117</v>
       </c>
       <c r="M16" s="4">
-        <v>44167</v>
+        <v>44177</v>
+      </c>
+      <c t="s" r="N16" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c t="s" r="A17" s="1">
+        <v>69</v>
+      </c>
+      <c t="s" r="B17" s="1">
+        <v>70</v>
+      </c>
+      <c t="s" r="C17" s="1">
+        <v>71</v>
+      </c>
+      <c t="s" r="D17" s="1">
+        <v>72</v>
+      </c>
+      <c t="s" r="E17" s="1">
         <v>62</v>
       </c>
-      <c t="s" r="B17" s="1">
+      <c t="s" r="F17" s="1">
         <v>63</v>
       </c>
-      <c t="s" r="C17" s="1">
-        <v>70</v>
-      </c>
-      <c t="s" r="D17" s="1">
-        <v>71</v>
-      </c>
-      <c t="s" r="E17" s="1">
-        <v>66</v>
-      </c>
-      <c t="s" r="F17" s="1">
-        <v>67</v>
-      </c>
       <c r="G17" s="2">
         <v>15.6</v>
       </c>
       <c t="s" r="H17" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="I17" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
       </c>
       <c t="s" r="K17" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L17" s="4">
-        <v>44107</v>
+        <v>44117</v>
       </c>
       <c r="M17" s="4">
-        <v>44167</v>
+        <v>44177</v>
+      </c>
+      <c t="s" r="N17" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c t="s" r="A18" s="1">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c t="s" r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c t="s" r="C18" s="1">
         <v>73</v>
       </c>
-      <c t="s" r="C18" s="1">
+      <c t="s" r="D18" s="1">
         <v>74</v>
       </c>
-      <c t="s" r="D18" s="1">
+      <c t="s" r="E18" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F18" s="1">
         <v>75</v>
       </c>
-      <c t="s" r="E18" s="1">
-        <v>66</v>
-      </c>
-      <c t="s" r="F18" s="1">
-        <v>76</v>
-      </c>
       <c r="G18" s="2">
-        <v>14</v>
+        <v>15.6</v>
       </c>
       <c t="s" r="H18" s="1">
-        <v>77</v>
-      </c>
-      <c r="I18" s="3">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c t="s" r="I18" s="3">
+        <v>21</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
       </c>
       <c t="s" r="K18" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L18" s="4">
-        <v>44138.773888888885</v>
+        <v>44113</v>
       </c>
       <c r="M18" s="4">
-        <v>44167.773888888885</v>
+        <v>44173</v>
+      </c>
+      <c t="s" r="N18" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c t="s" r="A19" s="1">
+        <v>76</v>
+      </c>
+      <c t="s" r="B19" s="1">
+        <v>77</v>
+      </c>
+      <c t="s" r="C19" s="1">
         <v>78</v>
       </c>
-      <c t="s" r="B19" s="1">
+      <c t="s" r="D19" s="1">
         <v>79</v>
       </c>
-      <c t="s" r="C19" s="1">
-        <v>80</v>
-      </c>
-      <c t="s" r="D19" s="1">
-        <v>81</v>
-      </c>
       <c t="s" r="E19" s="1">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c t="s" r="F19" s="1">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="G19" s="2">
-        <v>14</v>
+        <v>15.6</v>
       </c>
       <c t="s" r="H19" s="1">
-        <v>77</v>
-      </c>
-      <c r="I19" s="3">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c t="s" r="I19" s="3">
+        <v>21</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
       </c>
       <c t="s" r="K19" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L19" s="4">
-        <v>44138</v>
+        <v>44116</v>
       </c>
       <c r="M19" s="4">
-        <v>44167</v>
+        <v>44176</v>
+      </c>
+      <c t="s" r="N19" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c t="s" r="A20" s="1">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c t="s" r="B20" s="1">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c t="s" r="C20" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c t="s" r="D20" s="1">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c t="s" r="E20" s="1">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c t="s" r="F20" s="1">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="G20" s="2">
-        <v>14</v>
+        <v>15.6</v>
       </c>
       <c t="s" r="H20" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="I20" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
       </c>
       <c t="s" r="K20" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L20" s="4">
-        <v>44107</v>
+        <v>44116</v>
       </c>
       <c r="M20" s="4">
-        <v>44167</v>
+        <v>44176</v>
+      </c>
+      <c t="s" r="N20" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c t="s" r="A21" s="1">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c t="s" r="B21" s="1">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c t="s" r="C21" s="1">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c t="s" r="D21" s="1">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c t="s" r="E21" s="1">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c t="s" r="F21" s="1">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="G21" s="2">
-        <v>13.300000000000001</v>
+        <v>15.6</v>
       </c>
       <c t="s" r="H21" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="I21" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
       </c>
       <c t="s" r="K21" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L21" s="4">
-        <v>44137</v>
+        <v>44113</v>
       </c>
       <c r="M21" s="4">
-        <v>44167</v>
+        <v>44173</v>
+      </c>
+      <c t="s" r="N21" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c t="s" r="A22" s="1">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c t="s" r="B22" s="1">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c t="s" r="C22" s="1">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c t="s" r="D22" s="1">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c t="s" r="E22" s="1">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c t="s" r="F22" s="1">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G22" s="2">
-        <v>14</v>
+        <v>15.6</v>
       </c>
       <c t="s" r="H22" s="1">
-        <v>20</v>
-      </c>
-      <c t="s" r="I22" s="3">
-        <v>20</v>
+        <v>89</v>
+      </c>
+      <c r="I22" s="3">
+        <v>8</v>
       </c>
       <c r="J22" s="2">
         <v>0</v>
       </c>
       <c t="s" r="K22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L22" s="4">
-        <v>44138</v>
+        <v>44148.418194444443</v>
       </c>
       <c r="M22" s="4">
-        <v>44167</v>
+        <v>44177.418194444443</v>
+      </c>
+      <c t="s" r="N22" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c t="s" r="A23" s="1">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c t="s" r="B23" s="1">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c t="s" r="C23" s="1">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c t="s" r="D23" s="1">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c t="s" r="E23" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="F23" s="1">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="G23" s="2">
         <v>15.6</v>
       </c>
       <c t="s" r="H23" s="1">
-        <v>99</v>
-      </c>
-      <c r="I23" s="3">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c t="s" r="I23" s="3">
+        <v>21</v>
       </c>
       <c r="J23" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c t="s" r="K23" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L23" s="4">
-        <v>44137.764074074075</v>
+        <v>44113</v>
       </c>
       <c r="M23" s="4">
-        <v>44167</v>
+        <v>44173</v>
+      </c>
+      <c t="s" r="N23" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c t="s" r="A24" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c t="s" r="B24" s="1">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c t="s" r="C24" s="1">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c t="s" r="D24" s="1">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c t="s" r="E24" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="F24" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G24" s="2">
         <v>15.6</v>
       </c>
       <c t="s" r="H24" s="1">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I24" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
       </c>
       <c t="s" r="K24" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L24" s="4">
-        <v>44138</v>
+        <v>44148.410370370366</v>
       </c>
       <c r="M24" s="4">
-        <v>44167</v>
+        <v>44177.410370370366</v>
+      </c>
+      <c t="s" r="N24" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c t="s" r="A25" s="1">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c t="s" r="B25" s="1">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c t="s" r="C25" s="1">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c t="s" r="D25" s="1">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c t="s" r="E25" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="F25" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G25" s="2">
         <v>15.6</v>
       </c>
       <c t="s" r="H25" s="1">
-        <v>77</v>
-      </c>
-      <c r="I25" s="3">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c t="s" r="I25" s="3">
+        <v>21</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
       </c>
       <c t="s" r="K25" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L25" s="4">
-        <v>44138</v>
+        <v>44116</v>
       </c>
       <c r="M25" s="4">
-        <v>44167</v>
+        <v>44176</v>
+      </c>
+      <c t="s" r="N25" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c t="s" r="A26" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c t="s" r="B26" s="1">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c t="s" r="C26" s="1">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c t="s" r="D26" s="1">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c t="s" r="E26" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="F26" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G26" s="2">
         <v>15.6</v>
       </c>
       <c t="s" r="H26" s="1">
-        <v>77</v>
-      </c>
-      <c r="I26" s="3">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c t="s" r="I26" s="3">
+        <v>21</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
       </c>
       <c t="s" r="K26" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L26" s="4">
-        <v>44138</v>
+        <v>44114</v>
       </c>
       <c r="M26" s="4">
-        <v>44167</v>
+        <v>44174</v>
+      </c>
+      <c t="s" r="N26" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c t="s" r="A27" s="1">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c t="s" r="B27" s="1">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c t="s" r="C27" s="1">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c t="s" r="D27" s="1">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c t="s" r="E27" s="1">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c t="s" r="F27" s="1">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G27" s="2">
-        <v>14</v>
+        <v>15.6</v>
       </c>
       <c t="s" r="H27" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="I27" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
       </c>
       <c t="s" r="K27" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L27" s="4">
-        <v>44138</v>
+        <v>44114</v>
       </c>
       <c r="M27" s="4">
-        <v>44167</v>
+        <v>44174</v>
+      </c>
+      <c t="s" r="N27" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c t="s" r="A28" s="1">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c t="s" r="B28" s="1">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c t="s" r="C28" s="1">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c t="s" r="D28" s="1">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c t="s" r="E28" s="1">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c t="s" r="F28" s="1">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="G28" s="2">
-        <v>14</v>
+        <v>15.6</v>
       </c>
       <c t="s" r="H28" s="1">
-        <v>77</v>
-      </c>
-      <c r="I28" s="3">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c t="s" r="I28" s="3">
+        <v>21</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
       </c>
       <c t="s" r="K28" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L28" s="4">
-        <v>44138</v>
+        <v>44114</v>
       </c>
       <c r="M28" s="4">
-        <v>44167</v>
+        <v>44174</v>
+      </c>
+      <c t="s" r="N28" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="29">
       <c t="s" r="A29" s="1">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c t="s" r="B29" s="1">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c t="s" r="C29" s="1">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c t="s" r="D29" s="1">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c t="s" r="E29" s="1">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c t="s" r="F29" s="1">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="G29" s="2">
-        <v>14</v>
+        <v>15.6</v>
       </c>
       <c t="s" r="H29" s="1">
-        <v>77</v>
-      </c>
-      <c r="I29" s="3">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c t="s" r="I29" s="3">
+        <v>21</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
       </c>
       <c t="s" r="K29" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L29" s="4">
-        <v>44138</v>
+        <v>44115</v>
       </c>
       <c r="M29" s="4">
-        <v>44167</v>
+        <v>44175</v>
+      </c>
+      <c t="s" r="N29" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="30">
       <c t="s" r="A30" s="1">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c t="s" r="B30" s="1">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c t="s" r="C30" s="1">
+        <v>111</v>
+      </c>
+      <c t="s" r="D30" s="1">
+        <v>112</v>
+      </c>
+      <c t="s" r="E30" s="1">
+        <v>62</v>
+      </c>
+      <c t="s" r="F30" s="1">
+        <v>108</v>
+      </c>
+      <c r="G30" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H30" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I30" s="3">
+        <v>21</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K30" s="1">
+        <v>21</v>
+      </c>
+      <c r="L30" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M30" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N30" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31">
+      <c t="s" r="A31" s="1">
+        <v>76</v>
+      </c>
+      <c t="s" r="B31" s="1">
+        <v>77</v>
+      </c>
+      <c t="s" r="C31" s="1">
+        <v>113</v>
+      </c>
+      <c t="s" r="D31" s="1">
         <v>114</v>
       </c>
-      <c t="s" r="D30" s="1">
-        <v>81</v>
-      </c>
-      <c t="s" r="E30" s="1">
-        <v>66</v>
-      </c>
-      <c t="s" r="F30" s="1">
-        <v>82</v>
-      </c>
-      <c r="G30" s="2">
+      <c t="s" r="E31" s="1">
+        <v>62</v>
+      </c>
+      <c t="s" r="F31" s="1">
+        <v>108</v>
+      </c>
+      <c r="G31" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H31" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I31" s="3">
+        <v>21</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K31" s="1">
+        <v>21</v>
+      </c>
+      <c r="L31" s="4">
+        <v>44116</v>
+      </c>
+      <c r="M31" s="4">
+        <v>44176</v>
+      </c>
+      <c t="s" r="N31" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32">
+      <c t="s" r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c t="s" r="B32" s="1">
+        <v>31</v>
+      </c>
+      <c t="s" r="C32" s="1">
+        <v>115</v>
+      </c>
+      <c t="s" r="D32" s="1">
+        <v>116</v>
+      </c>
+      <c t="s" r="E32" s="1">
+        <v>62</v>
+      </c>
+      <c t="s" r="F32" s="1">
+        <v>108</v>
+      </c>
+      <c r="G32" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H32" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I32" s="3">
+        <v>21</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K32" s="1">
+        <v>21</v>
+      </c>
+      <c r="L32" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M32" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N32" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33">
+      <c t="s" r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c t="s" r="B33" s="1">
+        <v>31</v>
+      </c>
+      <c t="s" r="C33" s="1">
+        <v>117</v>
+      </c>
+      <c t="s" r="D33" s="1">
+        <v>118</v>
+      </c>
+      <c t="s" r="E33" s="1">
+        <v>62</v>
+      </c>
+      <c t="s" r="F33" s="1">
+        <v>108</v>
+      </c>
+      <c r="G33" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H33" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I33" s="3">
+        <v>21</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K33" s="1">
+        <v>21</v>
+      </c>
+      <c r="L33" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M33" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N33" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34">
+      <c t="s" r="A34" s="1">
+        <v>119</v>
+      </c>
+      <c t="s" r="B34" s="1">
+        <v>120</v>
+      </c>
+      <c t="s" r="C34" s="1">
+        <v>121</v>
+      </c>
+      <c t="s" r="D34" s="1">
+        <v>122</v>
+      </c>
+      <c t="s" r="E34" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F34" s="1">
+        <v>75</v>
+      </c>
+      <c r="G34" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H34" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I34" s="3">
+        <v>21</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K34" s="1">
+        <v>21</v>
+      </c>
+      <c r="L34" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M34" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N34" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35">
+      <c t="s" r="A35" s="1">
+        <v>15</v>
+      </c>
+      <c t="s" r="B35" s="1">
+        <v>16</v>
+      </c>
+      <c t="s" r="C35" s="1">
+        <v>123</v>
+      </c>
+      <c t="s" r="D35" s="1">
+        <v>124</v>
+      </c>
+      <c t="s" r="E35" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F35" s="1">
+        <v>75</v>
+      </c>
+      <c r="G35" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H35" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I35" s="3">
+        <v>21</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K35" s="1">
+        <v>21</v>
+      </c>
+      <c r="L35" s="4">
+        <v>44113</v>
+      </c>
+      <c r="M35" s="4">
+        <v>44173</v>
+      </c>
+      <c t="s" r="N35" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c t="s" r="A36" s="1">
+        <v>119</v>
+      </c>
+      <c t="s" r="B36" s="1">
+        <v>120</v>
+      </c>
+      <c t="s" r="C36" s="1">
+        <v>125</v>
+      </c>
+      <c t="s" r="D36" s="1">
+        <v>126</v>
+      </c>
+      <c t="s" r="E36" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F36" s="1">
+        <v>75</v>
+      </c>
+      <c r="G36" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H36" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I36" s="3">
+        <v>21</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K36" s="1">
+        <v>21</v>
+      </c>
+      <c r="L36" s="4">
+        <v>44112</v>
+      </c>
+      <c r="M36" s="4">
+        <v>44172</v>
+      </c>
+      <c t="s" r="N36" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37">
+      <c t="s" r="A37" s="1">
+        <v>119</v>
+      </c>
+      <c t="s" r="B37" s="1">
+        <v>120</v>
+      </c>
+      <c t="s" r="C37" s="1">
+        <v>127</v>
+      </c>
+      <c t="s" r="D37" s="1">
+        <v>128</v>
+      </c>
+      <c t="s" r="E37" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F37" s="1">
+        <v>75</v>
+      </c>
+      <c r="G37" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H37" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I37" s="3">
+        <v>21</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K37" s="1">
+        <v>21</v>
+      </c>
+      <c r="L37" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M37" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N37" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38">
+      <c t="s" r="A38" s="1">
+        <v>119</v>
+      </c>
+      <c t="s" r="B38" s="1">
+        <v>120</v>
+      </c>
+      <c t="s" r="C38" s="1">
+        <v>129</v>
+      </c>
+      <c t="s" r="D38" s="1">
+        <v>130</v>
+      </c>
+      <c t="s" r="E38" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F38" s="1">
+        <v>75</v>
+      </c>
+      <c r="G38" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H38" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I38" s="3">
+        <v>21</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K38" s="1">
+        <v>21</v>
+      </c>
+      <c r="L38" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M38" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N38" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39">
+      <c t="s" r="A39" s="1">
+        <v>119</v>
+      </c>
+      <c t="s" r="B39" s="1">
+        <v>120</v>
+      </c>
+      <c t="s" r="C39" s="1">
+        <v>131</v>
+      </c>
+      <c t="s" r="D39" s="1">
+        <v>132</v>
+      </c>
+      <c t="s" r="E39" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F39" s="1">
+        <v>75</v>
+      </c>
+      <c r="G39" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H39" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I39" s="3">
+        <v>21</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K39" s="1">
+        <v>21</v>
+      </c>
+      <c r="L39" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M39" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N39" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40">
+      <c t="s" r="A40" s="1">
+        <v>30</v>
+      </c>
+      <c t="s" r="B40" s="1">
+        <v>31</v>
+      </c>
+      <c t="s" r="C40" s="1">
+        <v>133</v>
+      </c>
+      <c t="s" r="D40" s="1">
+        <v>134</v>
+      </c>
+      <c t="s" r="E40" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F40" s="1">
+        <v>75</v>
+      </c>
+      <c r="G40" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H40" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I40" s="3">
+        <v>21</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K40" s="1">
+        <v>21</v>
+      </c>
+      <c r="L40" s="4">
+        <v>44117</v>
+      </c>
+      <c r="M40" s="4">
+        <v>44177</v>
+      </c>
+      <c t="s" r="N40" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41">
+      <c t="s" r="A41" s="1">
+        <v>135</v>
+      </c>
+      <c t="s" r="B41" s="1">
+        <v>136</v>
+      </c>
+      <c t="s" r="C41" s="1">
+        <v>137</v>
+      </c>
+      <c t="s" r="D41" s="1">
+        <v>138</v>
+      </c>
+      <c t="s" r="E41" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F41" s="1">
+        <v>75</v>
+      </c>
+      <c r="G41" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H41" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I41" s="3">
+        <v>21</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K41" s="1">
+        <v>21</v>
+      </c>
+      <c r="L41" s="4">
+        <v>44085</v>
+      </c>
+      <c r="M41" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N41" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42">
+      <c t="s" r="A42" s="1">
+        <v>119</v>
+      </c>
+      <c t="s" r="B42" s="1">
+        <v>120</v>
+      </c>
+      <c t="s" r="C42" s="1">
+        <v>139</v>
+      </c>
+      <c t="s" r="D42" s="1">
+        <v>140</v>
+      </c>
+      <c t="s" r="E42" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F42" s="1">
+        <v>75</v>
+      </c>
+      <c r="G42" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H42" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I42" s="3">
+        <v>21</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K42" s="1">
+        <v>21</v>
+      </c>
+      <c r="L42" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M42" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N42" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43">
+      <c t="s" r="A43" s="1">
+        <v>30</v>
+      </c>
+      <c t="s" r="B43" s="1">
+        <v>31</v>
+      </c>
+      <c t="s" r="C43" s="1">
+        <v>141</v>
+      </c>
+      <c t="s" r="D43" s="1">
+        <v>142</v>
+      </c>
+      <c t="s" r="E43" s="1">
+        <v>62</v>
+      </c>
+      <c t="s" r="F43" s="1">
+        <v>108</v>
+      </c>
+      <c r="G43" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H43" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I43" s="3">
+        <v>21</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K43" s="1">
+        <v>21</v>
+      </c>
+      <c r="L43" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M43" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N43" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44">
+      <c t="s" r="A44" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B44" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C44" s="1">
+        <v>143</v>
+      </c>
+      <c t="s" r="D44" s="1">
+        <v>144</v>
+      </c>
+      <c t="s" r="E44" s="1">
+        <v>62</v>
+      </c>
+      <c t="s" r="F44" s="1">
+        <v>108</v>
+      </c>
+      <c r="G44" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H44" s="1">
+        <v>89</v>
+      </c>
+      <c r="I44" s="3">
+        <v>8</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K44" s="1">
+        <v>21</v>
+      </c>
+      <c r="L44" s="4">
+        <v>44148.548217592594</v>
+      </c>
+      <c r="M44" s="4">
+        <v>44177.548217592594</v>
+      </c>
+      <c t="s" r="N44" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45">
+      <c t="s" r="A45" s="1">
+        <v>76</v>
+      </c>
+      <c t="s" r="B45" s="1">
+        <v>77</v>
+      </c>
+      <c t="s" r="C45" s="1">
+        <v>145</v>
+      </c>
+      <c t="s" r="D45" s="1">
+        <v>146</v>
+      </c>
+      <c t="s" r="E45" s="1">
+        <v>62</v>
+      </c>
+      <c t="s" r="F45" s="1">
+        <v>108</v>
+      </c>
+      <c r="G45" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H45" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I45" s="3">
+        <v>21</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K45" s="1">
+        <v>21</v>
+      </c>
+      <c r="L45" s="4">
+        <v>44116</v>
+      </c>
+      <c r="M45" s="4">
+        <v>44176</v>
+      </c>
+      <c t="s" r="N45" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46">
+      <c t="s" r="A46" s="1">
+        <v>76</v>
+      </c>
+      <c t="s" r="B46" s="1">
+        <v>77</v>
+      </c>
+      <c t="s" r="C46" s="1">
+        <v>147</v>
+      </c>
+      <c t="s" r="D46" s="1">
+        <v>148</v>
+      </c>
+      <c t="s" r="E46" s="1">
+        <v>62</v>
+      </c>
+      <c t="s" r="F46" s="1">
+        <v>108</v>
+      </c>
+      <c r="G46" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H46" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I46" s="3">
+        <v>21</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K46" s="1">
+        <v>21</v>
+      </c>
+      <c r="L46" s="4">
+        <v>44116</v>
+      </c>
+      <c r="M46" s="4">
+        <v>44176</v>
+      </c>
+      <c t="s" r="N46" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47">
+      <c t="s" r="A47" s="1">
+        <v>76</v>
+      </c>
+      <c t="s" r="B47" s="1">
+        <v>77</v>
+      </c>
+      <c t="s" r="C47" s="1">
+        <v>149</v>
+      </c>
+      <c t="s" r="D47" s="1">
+        <v>150</v>
+      </c>
+      <c t="s" r="E47" s="1">
+        <v>62</v>
+      </c>
+      <c t="s" r="F47" s="1">
+        <v>108</v>
+      </c>
+      <c r="G47" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H47" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I47" s="3">
+        <v>21</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K47" s="1">
+        <v>21</v>
+      </c>
+      <c r="L47" s="4">
+        <v>44116</v>
+      </c>
+      <c r="M47" s="4">
+        <v>44176</v>
+      </c>
+      <c t="s" r="N47" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48">
+      <c t="s" r="A48" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B48" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C48" s="1">
+        <v>151</v>
+      </c>
+      <c t="s" r="D48" s="1">
+        <v>87</v>
+      </c>
+      <c t="s" r="E48" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F48" s="1">
+        <v>75</v>
+      </c>
+      <c r="G48" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H48" s="1">
+        <v>89</v>
+      </c>
+      <c r="I48" s="3">
+        <v>8</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K48" s="1">
+        <v>21</v>
+      </c>
+      <c r="L48" s="4">
+        <v>44148.418194444443</v>
+      </c>
+      <c r="M48" s="4">
+        <v>44177.418194444443</v>
+      </c>
+      <c t="s" r="N48" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49">
+      <c t="s" r="A49" s="1">
+        <v>30</v>
+      </c>
+      <c t="s" r="B49" s="1">
+        <v>31</v>
+      </c>
+      <c t="s" r="C49" s="1">
+        <v>152</v>
+      </c>
+      <c t="s" r="D49" s="1">
+        <v>153</v>
+      </c>
+      <c t="s" r="E49" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F49" s="1">
+        <v>75</v>
+      </c>
+      <c r="G49" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H49" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I49" s="3">
+        <v>21</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K49" s="1">
+        <v>21</v>
+      </c>
+      <c r="L49" s="4">
+        <v>44116</v>
+      </c>
+      <c r="M49" s="4">
+        <v>44176</v>
+      </c>
+      <c t="s" r="N49" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50">
+      <c t="s" r="A50" s="1">
+        <v>30</v>
+      </c>
+      <c t="s" r="B50" s="1">
+        <v>31</v>
+      </c>
+      <c t="s" r="C50" s="1">
+        <v>154</v>
+      </c>
+      <c t="s" r="D50" s="1">
+        <v>155</v>
+      </c>
+      <c t="s" r="E50" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F50" s="1">
+        <v>75</v>
+      </c>
+      <c r="G50" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H50" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I50" s="3">
+        <v>21</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K50" s="1">
+        <v>21</v>
+      </c>
+      <c r="L50" s="4">
+        <v>44116</v>
+      </c>
+      <c r="M50" s="4">
+        <v>44176</v>
+      </c>
+      <c t="s" r="N50" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51">
+      <c t="s" r="A51" s="1">
+        <v>15</v>
+      </c>
+      <c t="s" r="B51" s="1">
+        <v>16</v>
+      </c>
+      <c t="s" r="C51" s="1">
+        <v>156</v>
+      </c>
+      <c t="s" r="D51" s="1">
+        <v>157</v>
+      </c>
+      <c t="s" r="E51" s="1">
+        <v>62</v>
+      </c>
+      <c t="s" r="F51" s="1">
+        <v>158</v>
+      </c>
+      <c r="G51" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H51" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I51" s="3">
+        <v>21</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K51" s="1">
+        <v>21</v>
+      </c>
+      <c r="L51" s="4">
+        <v>44113</v>
+      </c>
+      <c r="M51" s="4">
+        <v>44173</v>
+      </c>
+      <c t="s" r="N51" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52">
+      <c t="s" r="A52" s="1">
+        <v>159</v>
+      </c>
+      <c t="s" r="B52" s="1">
+        <v>160</v>
+      </c>
+      <c t="s" r="C52" s="1">
+        <v>161</v>
+      </c>
+      <c t="s" r="D52" s="1">
+        <v>162</v>
+      </c>
+      <c t="s" r="E52" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F52" s="1">
+        <v>20</v>
+      </c>
+      <c r="G52" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H52" s="1">
+        <v>163</v>
+      </c>
+      <c r="I52" s="3">
+        <v>8</v>
+      </c>
+      <c r="J52" s="2">
+        <v>4</v>
+      </c>
+      <c t="s" r="K52" s="1">
+        <v>164</v>
+      </c>
+      <c r="L52" s="4">
+        <v>44088</v>
+      </c>
+      <c r="M52" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N52" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53">
+      <c t="s" r="A53" s="1">
+        <v>165</v>
+      </c>
+      <c t="s" r="B53" s="1">
+        <v>166</v>
+      </c>
+      <c t="s" r="C53" s="1">
+        <v>167</v>
+      </c>
+      <c t="s" r="D53" s="1">
+        <v>168</v>
+      </c>
+      <c t="s" r="E53" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F53" s="1">
+        <v>27</v>
+      </c>
+      <c r="G53" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H53" s="1">
+        <v>89</v>
+      </c>
+      <c r="I53" s="3">
+        <v>8</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K53" s="1">
+        <v>21</v>
+      </c>
+      <c r="L53" s="4">
+        <v>44146.382465277777</v>
+      </c>
+      <c r="M53" s="4">
+        <v>44175.382465277777</v>
+      </c>
+      <c t="s" r="N53" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54">
+      <c t="s" r="A54" s="1">
+        <v>119</v>
+      </c>
+      <c t="s" r="B54" s="1">
+        <v>120</v>
+      </c>
+      <c t="s" r="C54" s="1">
+        <v>169</v>
+      </c>
+      <c t="s" r="D54" s="1">
+        <v>170</v>
+      </c>
+      <c t="s" r="E54" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F54" s="1">
+        <v>20</v>
+      </c>
+      <c r="G54" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H54" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I54" s="3">
+        <v>21</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K54" s="1">
+        <v>21</v>
+      </c>
+      <c r="L54" s="4">
+        <v>44112</v>
+      </c>
+      <c r="M54" s="4">
+        <v>44172</v>
+      </c>
+      <c t="s" r="N54" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55">
+      <c t="s" r="A55" s="1">
+        <v>23</v>
+      </c>
+      <c t="s" r="B55" s="1">
+        <v>24</v>
+      </c>
+      <c t="s" r="C55" s="1">
+        <v>171</v>
+      </c>
+      <c t="s" r="D55" s="1">
+        <v>172</v>
+      </c>
+      <c t="s" r="E55" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F55" s="1">
+        <v>27</v>
+      </c>
+      <c r="G55" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H55" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I55" s="3">
+        <v>21</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K55" s="1">
+        <v>21</v>
+      </c>
+      <c r="L55" s="4">
+        <v>44117</v>
+      </c>
+      <c r="M55" s="4">
+        <v>44177</v>
+      </c>
+      <c t="s" r="N55" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56">
+      <c t="s" r="A56" s="1">
+        <v>119</v>
+      </c>
+      <c t="s" r="B56" s="1">
+        <v>120</v>
+      </c>
+      <c t="s" r="C56" s="1">
+        <v>173</v>
+      </c>
+      <c t="s" r="D56" s="1">
+        <v>174</v>
+      </c>
+      <c t="s" r="E56" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F56" s="1">
+        <v>75</v>
+      </c>
+      <c r="G56" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H56" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I56" s="3">
+        <v>21</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K56" s="1">
+        <v>21</v>
+      </c>
+      <c r="L56" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M56" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N56" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57">
+      <c t="s" r="A57" s="1">
+        <v>175</v>
+      </c>
+      <c t="s" r="B57" s="1">
+        <v>176</v>
+      </c>
+      <c t="s" r="C57" s="1">
+        <v>177</v>
+      </c>
+      <c t="s" r="D57" s="1">
+        <v>178</v>
+      </c>
+      <c t="s" r="E57" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F57" s="1">
+        <v>180</v>
+      </c>
+      <c r="G57" s="2">
         <v>14</v>
       </c>
-      <c t="s" r="H30" s="1">
-        <v>77</v>
-      </c>
-      <c r="I30" s="3">
+      <c t="s" r="H57" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I57" s="3">
+        <v>21</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K57" s="1">
+        <v>21</v>
+      </c>
+      <c r="L57" s="4">
+        <v>44134</v>
+      </c>
+      <c r="M57" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N57" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58">
+      <c t="s" r="A58" s="1">
+        <v>30</v>
+      </c>
+      <c t="s" r="B58" s="1">
+        <v>31</v>
+      </c>
+      <c t="s" r="C58" s="1">
+        <v>181</v>
+      </c>
+      <c t="s" r="D58" s="1">
+        <v>182</v>
+      </c>
+      <c t="s" r="E58" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F58" s="1">
+        <v>27</v>
+      </c>
+      <c r="G58" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H58" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I58" s="3">
+        <v>21</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K58" s="1">
+        <v>21</v>
+      </c>
+      <c r="L58" s="4">
+        <v>44114</v>
+      </c>
+      <c r="M58" s="4">
+        <v>44174</v>
+      </c>
+      <c t="s" r="N58" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59">
+      <c t="s" r="A59" s="1">
+        <v>30</v>
+      </c>
+      <c t="s" r="B59" s="1">
+        <v>31</v>
+      </c>
+      <c t="s" r="C59" s="1">
+        <v>183</v>
+      </c>
+      <c t="s" r="D59" s="1">
+        <v>184</v>
+      </c>
+      <c t="s" r="E59" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F59" s="1">
+        <v>185</v>
+      </c>
+      <c r="G59" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H59" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I59" s="3">
+        <v>21</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K59" s="1">
+        <v>21</v>
+      </c>
+      <c r="L59" s="4">
+        <v>44117</v>
+      </c>
+      <c r="M59" s="4">
+        <v>44177</v>
+      </c>
+      <c t="s" r="N59" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60">
+      <c t="s" r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c t="s" r="B60" s="1">
+        <v>59</v>
+      </c>
+      <c t="s" r="C60" s="1">
+        <v>186</v>
+      </c>
+      <c t="s" r="D60" s="1">
+        <v>187</v>
+      </c>
+      <c t="s" r="E60" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F60" s="1">
+        <v>185</v>
+      </c>
+      <c r="G60" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H60" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I60" s="3">
+        <v>21</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K60" s="1">
+        <v>21</v>
+      </c>
+      <c r="L60" s="4">
+        <v>44118</v>
+      </c>
+      <c r="M60" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N60" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61">
+      <c t="s" r="A61" s="1">
+        <v>188</v>
+      </c>
+      <c t="s" r="B61" s="1">
+        <v>189</v>
+      </c>
+      <c t="s" r="C61" s="1">
+        <v>190</v>
+      </c>
+      <c t="s" r="D61" s="1">
+        <v>191</v>
+      </c>
+      <c t="s" r="E61" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F61" s="1">
+        <v>185</v>
+      </c>
+      <c r="G61" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H61" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I61" s="3">
+        <v>21</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K61" s="1">
+        <v>21</v>
+      </c>
+      <c r="L61" s="4">
+        <v>44117</v>
+      </c>
+      <c r="M61" s="4">
+        <v>44177</v>
+      </c>
+      <c t="s" r="N61" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62">
+      <c t="s" r="A62" s="1">
+        <v>192</v>
+      </c>
+      <c t="s" r="B62" s="1">
+        <v>193</v>
+      </c>
+      <c t="s" r="C62" s="1">
+        <v>194</v>
+      </c>
+      <c t="s" r="D62" s="1">
+        <v>195</v>
+      </c>
+      <c t="s" r="E62" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F62" s="1">
+        <v>185</v>
+      </c>
+      <c r="G62" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H62" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I62" s="3">
+        <v>21</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K62" s="1">
+        <v>21</v>
+      </c>
+      <c r="L62" s="4">
+        <v>44116</v>
+      </c>
+      <c r="M62" s="4">
+        <v>44176</v>
+      </c>
+      <c t="s" r="N62" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63">
+      <c t="s" r="A63" s="1">
+        <v>196</v>
+      </c>
+      <c t="s" r="B63" s="1">
+        <v>197</v>
+      </c>
+      <c t="s" r="C63" s="1">
+        <v>198</v>
+      </c>
+      <c t="s" r="D63" s="1">
+        <v>199</v>
+      </c>
+      <c t="s" r="E63" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F63" s="1">
+        <v>185</v>
+      </c>
+      <c r="G63" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H63" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I63" s="3">
+        <v>21</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K63" s="1">
+        <v>21</v>
+      </c>
+      <c r="L63" s="4">
+        <v>44082</v>
+      </c>
+      <c r="M63" s="4">
+        <v>44172</v>
+      </c>
+      <c t="s" r="N63" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64">
+      <c t="s" r="A64" s="1">
+        <v>192</v>
+      </c>
+      <c t="s" r="B64" s="1">
+        <v>193</v>
+      </c>
+      <c t="s" r="C64" s="1">
+        <v>200</v>
+      </c>
+      <c t="s" r="D64" s="1">
+        <v>201</v>
+      </c>
+      <c t="s" r="E64" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F64" s="1">
+        <v>185</v>
+      </c>
+      <c r="G64" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H64" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I64" s="3">
+        <v>21</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K64" s="1">
+        <v>21</v>
+      </c>
+      <c r="L64" s="4">
+        <v>44116</v>
+      </c>
+      <c r="M64" s="4">
+        <v>44176</v>
+      </c>
+      <c t="s" r="N64" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65">
+      <c t="s" r="A65" s="1">
+        <v>196</v>
+      </c>
+      <c t="s" r="B65" s="1">
+        <v>197</v>
+      </c>
+      <c t="s" r="C65" s="1">
+        <v>202</v>
+      </c>
+      <c t="s" r="D65" s="1">
+        <v>203</v>
+      </c>
+      <c t="s" r="E65" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F65" s="1">
+        <v>185</v>
+      </c>
+      <c r="G65" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H65" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I65" s="3">
+        <v>21</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K65" s="1">
+        <v>21</v>
+      </c>
+      <c r="L65" s="4">
+        <v>44082</v>
+      </c>
+      <c r="M65" s="4">
+        <v>44172</v>
+      </c>
+      <c t="s" r="N65" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66">
+      <c t="s" r="A66" s="1">
+        <v>58</v>
+      </c>
+      <c t="s" r="B66" s="1">
+        <v>59</v>
+      </c>
+      <c t="s" r="C66" s="1">
+        <v>204</v>
+      </c>
+      <c t="s" r="D66" s="1">
+        <v>205</v>
+      </c>
+      <c t="s" r="E66" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F66" s="1">
+        <v>185</v>
+      </c>
+      <c r="G66" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H66" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I66" s="3">
+        <v>21</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K66" s="1">
+        <v>21</v>
+      </c>
+      <c r="L66" s="4">
+        <v>44118</v>
+      </c>
+      <c r="M66" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N66" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67">
+      <c t="s" r="A67" s="1">
+        <v>206</v>
+      </c>
+      <c t="s" r="B67" s="1">
+        <v>207</v>
+      </c>
+      <c t="s" r="C67" s="1">
+        <v>208</v>
+      </c>
+      <c t="s" r="D67" s="1">
+        <v>209</v>
+      </c>
+      <c t="s" r="E67" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F67" s="1">
+        <v>185</v>
+      </c>
+      <c r="G67" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H67" s="1">
+        <v>89</v>
+      </c>
+      <c r="I67" s="3">
         <v>8</v>
       </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c t="s" r="K30" s="1">
-        <v>20</v>
-      </c>
-      <c r="L30" s="4">
-        <v>44138</v>
-      </c>
-      <c r="M30" s="4">
-        <v>44167</v>
+      <c r="J67" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K67" s="1">
+        <v>21</v>
+      </c>
+      <c r="L67" s="4">
+        <v>44148.570914351847</v>
+      </c>
+      <c r="M67" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N67" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68">
+      <c t="s" r="A68" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B68" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C68" s="1">
+        <v>210</v>
+      </c>
+      <c t="s" r="D68" s="1">
+        <v>93</v>
+      </c>
+      <c t="s" r="E68" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F68" s="1">
+        <v>185</v>
+      </c>
+      <c r="G68" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H68" s="1">
+        <v>89</v>
+      </c>
+      <c r="I68" s="3">
+        <v>8</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K68" s="1">
+        <v>21</v>
+      </c>
+      <c r="L68" s="4">
+        <v>44148.410370370366</v>
+      </c>
+      <c r="M68" s="4">
+        <v>44177.410370370366</v>
+      </c>
+      <c t="s" r="N68" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69">
+      <c t="s" r="A69" s="1">
+        <v>23</v>
+      </c>
+      <c t="s" r="B69" s="1">
+        <v>24</v>
+      </c>
+      <c t="s" r="C69" s="1">
+        <v>211</v>
+      </c>
+      <c t="s" r="D69" s="1">
+        <v>212</v>
+      </c>
+      <c t="s" r="E69" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F69" s="1">
+        <v>185</v>
+      </c>
+      <c r="G69" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H69" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I69" s="3">
+        <v>21</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K69" s="1">
+        <v>21</v>
+      </c>
+      <c r="L69" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M69" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N69" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70">
+      <c t="s" r="A70" s="1">
+        <v>23</v>
+      </c>
+      <c t="s" r="B70" s="1">
+        <v>24</v>
+      </c>
+      <c t="s" r="C70" s="1">
+        <v>213</v>
+      </c>
+      <c t="s" r="D70" s="1">
+        <v>214</v>
+      </c>
+      <c t="s" r="E70" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F70" s="1">
+        <v>185</v>
+      </c>
+      <c r="G70" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H70" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I70" s="3">
+        <v>21</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K70" s="1">
+        <v>21</v>
+      </c>
+      <c r="L70" s="4">
+        <v>44117</v>
+      </c>
+      <c r="M70" s="4">
+        <v>44177</v>
+      </c>
+      <c t="s" r="N70" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71">
+      <c t="s" r="A71" s="1">
+        <v>23</v>
+      </c>
+      <c t="s" r="B71" s="1">
+        <v>24</v>
+      </c>
+      <c t="s" r="C71" s="1">
+        <v>215</v>
+      </c>
+      <c t="s" r="D71" s="1">
+        <v>216</v>
+      </c>
+      <c t="s" r="E71" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F71" s="1">
+        <v>185</v>
+      </c>
+      <c r="G71" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H71" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I71" s="3">
+        <v>21</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K71" s="1">
+        <v>21</v>
+      </c>
+      <c r="L71" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M71" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N71" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72">
+      <c t="s" r="A72" s="1">
+        <v>206</v>
+      </c>
+      <c t="s" r="B72" s="1">
+        <v>207</v>
+      </c>
+      <c t="s" r="C72" s="1">
+        <v>217</v>
+      </c>
+      <c t="s" r="D72" s="1">
+        <v>218</v>
+      </c>
+      <c t="s" r="E72" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F72" s="1">
+        <v>185</v>
+      </c>
+      <c r="G72" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H72" s="1">
+        <v>89</v>
+      </c>
+      <c r="I72" s="3">
+        <v>8</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K72" s="1">
+        <v>219</v>
+      </c>
+      <c r="L72" s="4">
+        <v>44148.570914351847</v>
+      </c>
+      <c r="M72" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N72" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73">
+      <c t="s" r="A73" s="1">
+        <v>206</v>
+      </c>
+      <c t="s" r="B73" s="1">
+        <v>207</v>
+      </c>
+      <c t="s" r="C73" s="1">
+        <v>220</v>
+      </c>
+      <c t="s" r="D73" s="1">
+        <v>209</v>
+      </c>
+      <c t="s" r="E73" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F73" s="1">
+        <v>185</v>
+      </c>
+      <c r="G73" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H73" s="1">
+        <v>89</v>
+      </c>
+      <c r="I73" s="3">
+        <v>8</v>
+      </c>
+      <c r="J73" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K73" s="1">
+        <v>21</v>
+      </c>
+      <c r="L73" s="4">
+        <v>44148.570914351847</v>
+      </c>
+      <c r="M73" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N73" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74">
+      <c t="s" r="A74" s="1">
+        <v>206</v>
+      </c>
+      <c t="s" r="B74" s="1">
+        <v>207</v>
+      </c>
+      <c t="s" r="C74" s="1">
+        <v>221</v>
+      </c>
+      <c t="s" r="D74" s="1">
+        <v>209</v>
+      </c>
+      <c t="s" r="E74" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F74" s="1">
+        <v>185</v>
+      </c>
+      <c r="G74" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H74" s="1">
+        <v>89</v>
+      </c>
+      <c r="I74" s="3">
+        <v>8</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K74" s="1">
+        <v>21</v>
+      </c>
+      <c r="L74" s="4">
+        <v>44148.570914351847</v>
+      </c>
+      <c r="M74" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N74" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75">
+      <c t="s" r="A75" s="1">
+        <v>23</v>
+      </c>
+      <c t="s" r="B75" s="1">
+        <v>24</v>
+      </c>
+      <c t="s" r="C75" s="1">
+        <v>222</v>
+      </c>
+      <c t="s" r="D75" s="1">
+        <v>223</v>
+      </c>
+      <c t="s" r="E75" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F75" s="1">
+        <v>185</v>
+      </c>
+      <c r="G75" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H75" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I75" s="3">
+        <v>21</v>
+      </c>
+      <c r="J75" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K75" s="1">
+        <v>21</v>
+      </c>
+      <c r="L75" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M75" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N75" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76">
+      <c t="s" r="A76" s="1">
+        <v>206</v>
+      </c>
+      <c t="s" r="B76" s="1">
+        <v>207</v>
+      </c>
+      <c t="s" r="C76" s="1">
+        <v>224</v>
+      </c>
+      <c t="s" r="D76" s="1">
+        <v>209</v>
+      </c>
+      <c t="s" r="E76" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F76" s="1">
+        <v>185</v>
+      </c>
+      <c r="G76" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H76" s="1">
+        <v>89</v>
+      </c>
+      <c r="I76" s="3">
+        <v>8</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K76" s="1">
+        <v>21</v>
+      </c>
+      <c r="L76" s="4">
+        <v>44148.570914351847</v>
+      </c>
+      <c r="M76" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N76" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77">
+      <c t="s" r="A77" s="1">
+        <v>225</v>
+      </c>
+      <c t="s" r="B77" s="1">
+        <v>226</v>
+      </c>
+      <c t="s" r="C77" s="1">
+        <v>227</v>
+      </c>
+      <c t="s" r="D77" s="1">
+        <v>228</v>
+      </c>
+      <c t="s" r="E77" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F77" s="1">
+        <v>229</v>
+      </c>
+      <c r="G77" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H77" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I77" s="3">
+        <v>21</v>
+      </c>
+      <c r="J77" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K77" s="1">
+        <v>21</v>
+      </c>
+      <c r="L77" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M77" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N77" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78">
+      <c t="s" r="A78" s="1">
+        <v>230</v>
+      </c>
+      <c t="s" r="B78" s="1">
+        <v>231</v>
+      </c>
+      <c t="s" r="C78" s="1">
+        <v>232</v>
+      </c>
+      <c t="s" r="D78" s="1">
+        <v>233</v>
+      </c>
+      <c t="s" r="E78" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F78" s="1">
+        <v>234</v>
+      </c>
+      <c r="G78" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H78" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I78" s="3">
+        <v>21</v>
+      </c>
+      <c r="J78" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K78" s="1">
+        <v>21</v>
+      </c>
+      <c r="L78" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M78" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N78" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79">
+      <c t="s" r="A79" s="1">
+        <v>235</v>
+      </c>
+      <c t="s" r="B79" s="1">
+        <v>236</v>
+      </c>
+      <c t="s" r="C79" s="1">
+        <v>237</v>
+      </c>
+      <c t="s" r="D79" s="1">
+        <v>238</v>
+      </c>
+      <c t="s" r="E79" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F79" s="1">
+        <v>27</v>
+      </c>
+      <c r="G79" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H79" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I79" s="3">
+        <v>21</v>
+      </c>
+      <c r="J79" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K79" s="1">
+        <v>21</v>
+      </c>
+      <c r="L79" s="4">
+        <v>44118</v>
+      </c>
+      <c r="M79" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N79" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80">
+      <c t="s" r="A80" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B80" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C80" s="1">
+        <v>239</v>
+      </c>
+      <c t="s" r="D80" s="1">
+        <v>93</v>
+      </c>
+      <c t="s" r="E80" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F80" s="1">
+        <v>240</v>
+      </c>
+      <c r="G80" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H80" s="1">
+        <v>89</v>
+      </c>
+      <c r="I80" s="3">
+        <v>10</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K80" s="1">
+        <v>21</v>
+      </c>
+      <c r="L80" s="4">
+        <v>44148.410370370366</v>
+      </c>
+      <c r="M80" s="4">
+        <v>44177.410370370366</v>
+      </c>
+      <c t="s" r="N80" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81">
+      <c t="s" r="A81" s="1">
+        <v>188</v>
+      </c>
+      <c t="s" r="B81" s="1">
+        <v>189</v>
+      </c>
+      <c t="s" r="C81" s="1">
+        <v>241</v>
+      </c>
+      <c t="s" r="D81" s="1">
+        <v>242</v>
+      </c>
+      <c t="s" r="E81" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F81" s="1">
+        <v>240</v>
+      </c>
+      <c r="G81" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H81" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I81" s="3">
+        <v>21</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K81" s="1">
+        <v>21</v>
+      </c>
+      <c r="L81" s="4">
+        <v>44117</v>
+      </c>
+      <c r="M81" s="4">
+        <v>44177</v>
+      </c>
+      <c t="s" r="N81" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82">
+      <c t="s" r="A82" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B82" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C82" s="1">
+        <v>243</v>
+      </c>
+      <c t="s" r="D82" s="1">
+        <v>93</v>
+      </c>
+      <c t="s" r="E82" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F82" s="1">
+        <v>240</v>
+      </c>
+      <c r="G82" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H82" s="1">
+        <v>89</v>
+      </c>
+      <c r="I82" s="3">
+        <v>10</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K82" s="1">
+        <v>21</v>
+      </c>
+      <c r="L82" s="4">
+        <v>44148.410370370366</v>
+      </c>
+      <c r="M82" s="4">
+        <v>44177.410370370366</v>
+      </c>
+      <c t="s" r="N82" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83">
+      <c t="s" r="A83" s="1">
+        <v>188</v>
+      </c>
+      <c t="s" r="B83" s="1">
+        <v>189</v>
+      </c>
+      <c t="s" r="C83" s="1">
+        <v>244</v>
+      </c>
+      <c t="s" r="D83" s="1">
+        <v>245</v>
+      </c>
+      <c t="s" r="E83" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F83" s="1">
+        <v>240</v>
+      </c>
+      <c r="G83" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H83" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I83" s="3">
+        <v>21</v>
+      </c>
+      <c r="J83" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K83" s="1">
+        <v>21</v>
+      </c>
+      <c r="L83" s="4">
+        <v>44117</v>
+      </c>
+      <c r="M83" s="4">
+        <v>44177</v>
+      </c>
+      <c t="s" r="N83" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84">
+      <c t="s" r="A84" s="1">
+        <v>188</v>
+      </c>
+      <c t="s" r="B84" s="1">
+        <v>189</v>
+      </c>
+      <c t="s" r="C84" s="1">
+        <v>246</v>
+      </c>
+      <c t="s" r="D84" s="1">
+        <v>247</v>
+      </c>
+      <c t="s" r="E84" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F84" s="1">
+        <v>240</v>
+      </c>
+      <c r="G84" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H84" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I84" s="3">
+        <v>21</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K84" s="1">
+        <v>21</v>
+      </c>
+      <c r="L84" s="4">
+        <v>44117</v>
+      </c>
+      <c r="M84" s="4">
+        <v>44177</v>
+      </c>
+      <c t="s" r="N84" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85">
+      <c t="s" r="A85" s="1">
+        <v>188</v>
+      </c>
+      <c t="s" r="B85" s="1">
+        <v>189</v>
+      </c>
+      <c t="s" r="C85" s="1">
+        <v>248</v>
+      </c>
+      <c t="s" r="D85" s="1">
+        <v>249</v>
+      </c>
+      <c t="s" r="E85" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F85" s="1">
+        <v>240</v>
+      </c>
+      <c r="G85" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H85" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I85" s="3">
+        <v>21</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K85" s="1">
+        <v>21</v>
+      </c>
+      <c r="L85" s="4">
+        <v>44117</v>
+      </c>
+      <c r="M85" s="4">
+        <v>44177</v>
+      </c>
+      <c t="s" r="N85" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86">
+      <c t="s" r="A86" s="1">
+        <v>250</v>
+      </c>
+      <c t="s" r="B86" s="1">
+        <v>251</v>
+      </c>
+      <c t="s" r="C86" s="1">
+        <v>252</v>
+      </c>
+      <c t="s" r="D86" s="1">
+        <v>253</v>
+      </c>
+      <c t="s" r="E86" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F86" s="1">
+        <v>240</v>
+      </c>
+      <c r="G86" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H86" s="1">
+        <v>89</v>
+      </c>
+      <c r="I86" s="3">
+        <v>10</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K86" s="1">
+        <v>21</v>
+      </c>
+      <c r="L86" s="4">
+        <v>44144.6953125</v>
+      </c>
+      <c r="M86" s="4">
+        <v>44173.6953125</v>
+      </c>
+      <c t="s" r="N86" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87">
+      <c t="s" r="A87" s="1">
+        <v>250</v>
+      </c>
+      <c t="s" r="B87" s="1">
+        <v>251</v>
+      </c>
+      <c t="s" r="C87" s="1">
+        <v>254</v>
+      </c>
+      <c t="s" r="D87" s="1">
+        <v>253</v>
+      </c>
+      <c t="s" r="E87" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F87" s="1">
+        <v>240</v>
+      </c>
+      <c r="G87" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H87" s="1">
+        <v>89</v>
+      </c>
+      <c r="I87" s="3">
+        <v>10</v>
+      </c>
+      <c r="J87" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K87" s="1">
+        <v>21</v>
+      </c>
+      <c r="L87" s="4">
+        <v>44144.6953125</v>
+      </c>
+      <c r="M87" s="4">
+        <v>44173.6953125</v>
+      </c>
+      <c t="s" r="N87" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88">
+      <c t="s" r="A88" s="1">
+        <v>188</v>
+      </c>
+      <c t="s" r="B88" s="1">
+        <v>189</v>
+      </c>
+      <c t="s" r="C88" s="1">
+        <v>255</v>
+      </c>
+      <c t="s" r="D88" s="1">
+        <v>256</v>
+      </c>
+      <c t="s" r="E88" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F88" s="1">
+        <v>240</v>
+      </c>
+      <c r="G88" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H88" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I88" s="3">
+        <v>21</v>
+      </c>
+      <c r="J88" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K88" s="1">
+        <v>21</v>
+      </c>
+      <c r="L88" s="4">
+        <v>44117</v>
+      </c>
+      <c r="M88" s="4">
+        <v>44177</v>
+      </c>
+      <c t="s" r="N88" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89">
+      <c t="s" r="A89" s="1">
+        <v>188</v>
+      </c>
+      <c t="s" r="B89" s="1">
+        <v>189</v>
+      </c>
+      <c t="s" r="C89" s="1">
+        <v>257</v>
+      </c>
+      <c t="s" r="D89" s="1">
+        <v>258</v>
+      </c>
+      <c t="s" r="E89" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F89" s="1">
+        <v>240</v>
+      </c>
+      <c r="G89" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H89" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I89" s="3">
+        <v>21</v>
+      </c>
+      <c r="J89" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K89" s="1">
+        <v>21</v>
+      </c>
+      <c r="L89" s="4">
+        <v>44117</v>
+      </c>
+      <c r="M89" s="4">
+        <v>44177</v>
+      </c>
+      <c t="s" r="N89" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90">
+      <c t="s" r="A90" s="1">
+        <v>188</v>
+      </c>
+      <c t="s" r="B90" s="1">
+        <v>189</v>
+      </c>
+      <c t="s" r="C90" s="1">
+        <v>259</v>
+      </c>
+      <c t="s" r="D90" s="1">
+        <v>260</v>
+      </c>
+      <c t="s" r="E90" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F90" s="1">
+        <v>240</v>
+      </c>
+      <c r="G90" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H90" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I90" s="3">
+        <v>21</v>
+      </c>
+      <c r="J90" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K90" s="1">
+        <v>21</v>
+      </c>
+      <c r="L90" s="4">
+        <v>44117</v>
+      </c>
+      <c r="M90" s="4">
+        <v>44177</v>
+      </c>
+      <c t="s" r="N90" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91">
+      <c t="s" r="A91" s="1">
+        <v>188</v>
+      </c>
+      <c t="s" r="B91" s="1">
+        <v>189</v>
+      </c>
+      <c t="s" r="C91" s="1">
+        <v>261</v>
+      </c>
+      <c t="s" r="D91" s="1">
+        <v>262</v>
+      </c>
+      <c t="s" r="E91" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F91" s="1">
+        <v>240</v>
+      </c>
+      <c r="G91" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H91" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I91" s="3">
+        <v>21</v>
+      </c>
+      <c r="J91" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K91" s="1">
+        <v>21</v>
+      </c>
+      <c r="L91" s="4">
+        <v>44117</v>
+      </c>
+      <c r="M91" s="4">
+        <v>44177</v>
+      </c>
+      <c t="s" r="N91" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92">
+      <c t="s" r="A92" s="1">
+        <v>188</v>
+      </c>
+      <c t="s" r="B92" s="1">
+        <v>189</v>
+      </c>
+      <c t="s" r="C92" s="1">
+        <v>263</v>
+      </c>
+      <c t="s" r="D92" s="1">
+        <v>264</v>
+      </c>
+      <c t="s" r="E92" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F92" s="1">
+        <v>265</v>
+      </c>
+      <c r="G92" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H92" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I92" s="3">
+        <v>21</v>
+      </c>
+      <c r="J92" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K92" s="1">
+        <v>21</v>
+      </c>
+      <c r="L92" s="4">
+        <v>44117</v>
+      </c>
+      <c r="M92" s="4">
+        <v>44177</v>
+      </c>
+      <c t="s" r="N92" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93">
+      <c t="s" r="A93" s="1">
+        <v>188</v>
+      </c>
+      <c t="s" r="B93" s="1">
+        <v>189</v>
+      </c>
+      <c t="s" r="C93" s="1">
+        <v>266</v>
+      </c>
+      <c t="s" r="D93" s="1">
+        <v>267</v>
+      </c>
+      <c t="s" r="E93" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F93" s="1">
+        <v>265</v>
+      </c>
+      <c r="G93" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H93" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I93" s="3">
+        <v>21</v>
+      </c>
+      <c r="J93" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K93" s="1">
+        <v>21</v>
+      </c>
+      <c r="L93" s="4">
+        <v>44117</v>
+      </c>
+      <c r="M93" s="4">
+        <v>44177</v>
+      </c>
+      <c t="s" r="N93" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94">
+      <c t="s" r="A94" s="1">
+        <v>188</v>
+      </c>
+      <c t="s" r="B94" s="1">
+        <v>189</v>
+      </c>
+      <c t="s" r="C94" s="1">
+        <v>268</v>
+      </c>
+      <c t="s" r="D94" s="1">
+        <v>269</v>
+      </c>
+      <c t="s" r="E94" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F94" s="1">
+        <v>265</v>
+      </c>
+      <c r="G94" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H94" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I94" s="3">
+        <v>21</v>
+      </c>
+      <c r="J94" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K94" s="1">
+        <v>21</v>
+      </c>
+      <c r="L94" s="4">
+        <v>44117</v>
+      </c>
+      <c r="M94" s="4">
+        <v>44177</v>
+      </c>
+      <c t="s" r="N94" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95">
+      <c t="s" r="A95" s="1">
+        <v>188</v>
+      </c>
+      <c t="s" r="B95" s="1">
+        <v>189</v>
+      </c>
+      <c t="s" r="C95" s="1">
+        <v>270</v>
+      </c>
+      <c t="s" r="D95" s="1">
+        <v>271</v>
+      </c>
+      <c t="s" r="E95" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F95" s="1">
+        <v>265</v>
+      </c>
+      <c r="G95" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H95" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I95" s="3">
+        <v>21</v>
+      </c>
+      <c r="J95" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K95" s="1">
+        <v>21</v>
+      </c>
+      <c r="L95" s="4">
+        <v>44117</v>
+      </c>
+      <c r="M95" s="4">
+        <v>44177</v>
+      </c>
+      <c t="s" r="N95" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96">
+      <c t="s" r="A96" s="1">
+        <v>196</v>
+      </c>
+      <c t="s" r="B96" s="1">
+        <v>197</v>
+      </c>
+      <c t="s" r="C96" s="1">
+        <v>272</v>
+      </c>
+      <c t="s" r="D96" s="1">
+        <v>273</v>
+      </c>
+      <c t="s" r="E96" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F96" s="1">
+        <v>265</v>
+      </c>
+      <c r="G96" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H96" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I96" s="3">
+        <v>21</v>
+      </c>
+      <c r="J96" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K96" s="1">
+        <v>21</v>
+      </c>
+      <c r="L96" s="4">
+        <v>44085</v>
+      </c>
+      <c r="M96" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N96" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97">
+      <c t="s" r="A97" s="1">
+        <v>188</v>
+      </c>
+      <c t="s" r="B97" s="1">
+        <v>189</v>
+      </c>
+      <c t="s" r="C97" s="1">
+        <v>274</v>
+      </c>
+      <c t="s" r="D97" s="1">
+        <v>275</v>
+      </c>
+      <c t="s" r="E97" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F97" s="1">
+        <v>265</v>
+      </c>
+      <c r="G97" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H97" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I97" s="3">
+        <v>21</v>
+      </c>
+      <c r="J97" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K97" s="1">
+        <v>21</v>
+      </c>
+      <c r="L97" s="4">
+        <v>44117</v>
+      </c>
+      <c r="M97" s="4">
+        <v>44177</v>
+      </c>
+      <c t="s" r="N97" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98">
+      <c t="s" r="A98" s="1">
+        <v>192</v>
+      </c>
+      <c t="s" r="B98" s="1">
+        <v>193</v>
+      </c>
+      <c t="s" r="C98" s="1">
+        <v>276</v>
+      </c>
+      <c t="s" r="D98" s="1">
+        <v>277</v>
+      </c>
+      <c t="s" r="E98" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F98" s="1">
+        <v>278</v>
+      </c>
+      <c r="G98" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H98" s="1">
+        <v>89</v>
+      </c>
+      <c r="I98" s="3">
+        <v>8</v>
+      </c>
+      <c r="J98" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K98" s="1">
+        <v>279</v>
+      </c>
+      <c r="L98" s="4">
+        <v>44116</v>
+      </c>
+      <c r="M98" s="4">
+        <v>44176</v>
+      </c>
+      <c t="s" r="N98" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99">
+      <c t="s" r="A99" s="1">
+        <v>280</v>
+      </c>
+      <c t="s" r="B99" s="1">
+        <v>281</v>
+      </c>
+      <c t="s" r="C99" s="1">
+        <v>282</v>
+      </c>
+      <c t="s" r="D99" s="1">
+        <v>283</v>
+      </c>
+      <c t="s" r="E99" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F99" s="1">
+        <v>278</v>
+      </c>
+      <c r="G99" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H99" s="1">
+        <v>89</v>
+      </c>
+      <c r="I99" s="3">
+        <v>8</v>
+      </c>
+      <c r="J99" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K99" s="1">
+        <v>21</v>
+      </c>
+      <c r="L99" s="4">
+        <v>44166.721006944441</v>
+      </c>
+      <c r="M99" s="4">
+        <v>44173</v>
+      </c>
+      <c t="s" r="N99" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100">
+      <c t="s" r="A100" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B100" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C100" s="1">
+        <v>284</v>
+      </c>
+      <c t="s" r="D100" s="1">
+        <v>93</v>
+      </c>
+      <c t="s" r="E100" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F100" s="1">
+        <v>240</v>
+      </c>
+      <c r="G100" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H100" s="1">
+        <v>89</v>
+      </c>
+      <c r="I100" s="3">
+        <v>10</v>
+      </c>
+      <c r="J100" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K100" s="1">
+        <v>21</v>
+      </c>
+      <c r="L100" s="4">
+        <v>44148.410370370366</v>
+      </c>
+      <c r="M100" s="4">
+        <v>44177.410370370366</v>
+      </c>
+      <c t="s" r="N100" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101">
+      <c t="s" r="A101" s="1">
+        <v>196</v>
+      </c>
+      <c t="s" r="B101" s="1">
+        <v>197</v>
+      </c>
+      <c t="s" r="C101" s="1">
+        <v>285</v>
+      </c>
+      <c t="s" r="D101" s="1">
+        <v>286</v>
+      </c>
+      <c t="s" r="E101" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F101" s="1">
+        <v>240</v>
+      </c>
+      <c r="G101" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H101" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I101" s="3">
+        <v>21</v>
+      </c>
+      <c r="J101" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K101" s="1">
+        <v>21</v>
+      </c>
+      <c r="L101" s="4">
+        <v>44088</v>
+      </c>
+      <c r="M101" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N101" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102">
+      <c t="s" r="A102" s="1">
+        <v>196</v>
+      </c>
+      <c t="s" r="B102" s="1">
+        <v>197</v>
+      </c>
+      <c t="s" r="C102" s="1">
+        <v>287</v>
+      </c>
+      <c t="s" r="D102" s="1">
+        <v>288</v>
+      </c>
+      <c t="s" r="E102" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F102" s="1">
+        <v>240</v>
+      </c>
+      <c r="G102" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H102" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I102" s="3">
+        <v>21</v>
+      </c>
+      <c r="J102" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K102" s="1">
+        <v>21</v>
+      </c>
+      <c r="L102" s="4">
+        <v>44088</v>
+      </c>
+      <c r="M102" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N102" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103">
+      <c t="s" r="A103" s="1">
+        <v>196</v>
+      </c>
+      <c t="s" r="B103" s="1">
+        <v>197</v>
+      </c>
+      <c t="s" r="C103" s="1">
+        <v>289</v>
+      </c>
+      <c t="s" r="D103" s="1">
+        <v>290</v>
+      </c>
+      <c t="s" r="E103" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F103" s="1">
+        <v>240</v>
+      </c>
+      <c r="G103" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H103" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I103" s="3">
+        <v>21</v>
+      </c>
+      <c r="J103" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K103" s="1">
+        <v>21</v>
+      </c>
+      <c r="L103" s="4">
+        <v>44088</v>
+      </c>
+      <c r="M103" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N103" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104">
+      <c t="s" r="A104" s="1">
+        <v>196</v>
+      </c>
+      <c t="s" r="B104" s="1">
+        <v>197</v>
+      </c>
+      <c t="s" r="C104" s="1">
+        <v>291</v>
+      </c>
+      <c t="s" r="D104" s="1">
+        <v>292</v>
+      </c>
+      <c t="s" r="E104" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F104" s="1">
+        <v>240</v>
+      </c>
+      <c r="G104" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H104" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I104" s="3">
+        <v>21</v>
+      </c>
+      <c r="J104" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K104" s="1">
+        <v>21</v>
+      </c>
+      <c r="L104" s="4">
+        <v>44088</v>
+      </c>
+      <c r="M104" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N104" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105">
+      <c t="s" r="A105" s="1">
+        <v>235</v>
+      </c>
+      <c t="s" r="B105" s="1">
+        <v>236</v>
+      </c>
+      <c t="s" r="C105" s="1">
+        <v>293</v>
+      </c>
+      <c t="s" r="D105" s="1">
+        <v>294</v>
+      </c>
+      <c t="s" r="E105" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F105" s="1">
+        <v>240</v>
+      </c>
+      <c r="G105" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H105" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I105" s="3">
+        <v>21</v>
+      </c>
+      <c r="J105" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K105" s="1">
+        <v>21</v>
+      </c>
+      <c r="L105" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M105" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N105" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106">
+      <c t="s" r="A106" s="1">
+        <v>295</v>
+      </c>
+      <c t="s" r="B106" s="1">
+        <v>296</v>
+      </c>
+      <c t="s" r="C106" s="1">
+        <v>297</v>
+      </c>
+      <c t="s" r="D106" s="1">
+        <v>298</v>
+      </c>
+      <c t="s" r="E106" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F106" s="1">
+        <v>299</v>
+      </c>
+      <c r="G106" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H106" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I106" s="3">
+        <v>21</v>
+      </c>
+      <c r="J106" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K106" s="1">
+        <v>21</v>
+      </c>
+      <c r="L106" s="4">
+        <v>44113</v>
+      </c>
+      <c r="M106" s="4">
+        <v>44173</v>
+      </c>
+      <c t="s" r="N106" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107">
+      <c t="s" r="A107" s="1">
+        <v>295</v>
+      </c>
+      <c t="s" r="B107" s="1">
+        <v>296</v>
+      </c>
+      <c t="s" r="C107" s="1">
+        <v>300</v>
+      </c>
+      <c t="s" r="D107" s="1">
+        <v>301</v>
+      </c>
+      <c t="s" r="E107" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F107" s="1">
+        <v>299</v>
+      </c>
+      <c r="G107" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H107" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I107" s="3">
+        <v>21</v>
+      </c>
+      <c r="J107" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K107" s="1">
+        <v>21</v>
+      </c>
+      <c r="L107" s="4">
+        <v>44113</v>
+      </c>
+      <c r="M107" s="4">
+        <v>44173</v>
+      </c>
+      <c t="s" r="N107" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108">
+      <c t="s" r="A108" s="1">
+        <v>295</v>
+      </c>
+      <c t="s" r="B108" s="1">
+        <v>296</v>
+      </c>
+      <c t="s" r="C108" s="1">
+        <v>302</v>
+      </c>
+      <c t="s" r="D108" s="1">
+        <v>303</v>
+      </c>
+      <c t="s" r="E108" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F108" s="1">
+        <v>299</v>
+      </c>
+      <c r="G108" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H108" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I108" s="3">
+        <v>21</v>
+      </c>
+      <c r="J108" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K108" s="1">
+        <v>21</v>
+      </c>
+      <c r="L108" s="4">
+        <v>44113</v>
+      </c>
+      <c r="M108" s="4">
+        <v>44173</v>
+      </c>
+      <c t="s" r="N108" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109">
+      <c t="s" r="A109" s="1">
+        <v>295</v>
+      </c>
+      <c t="s" r="B109" s="1">
+        <v>296</v>
+      </c>
+      <c t="s" r="C109" s="1">
+        <v>304</v>
+      </c>
+      <c t="s" r="D109" s="1">
+        <v>305</v>
+      </c>
+      <c t="s" r="E109" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F109" s="1">
+        <v>299</v>
+      </c>
+      <c r="G109" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H109" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I109" s="3">
+        <v>21</v>
+      </c>
+      <c r="J109" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K109" s="1">
+        <v>21</v>
+      </c>
+      <c r="L109" s="4">
+        <v>44113</v>
+      </c>
+      <c r="M109" s="4">
+        <v>44173</v>
+      </c>
+      <c t="s" r="N109" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110">
+      <c t="s" r="A110" s="1">
+        <v>306</v>
+      </c>
+      <c t="s" r="B110" s="1">
+        <v>307</v>
+      </c>
+      <c t="s" r="C110" s="1">
+        <v>308</v>
+      </c>
+      <c t="s" r="D110" s="1">
+        <v>309</v>
+      </c>
+      <c t="s" r="E110" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F110" s="1">
+        <v>310</v>
+      </c>
+      <c r="G110" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H110" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I110" s="3">
+        <v>21</v>
+      </c>
+      <c r="J110" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K110" s="1">
+        <v>21</v>
+      </c>
+      <c r="L110" s="4">
+        <v>44118</v>
+      </c>
+      <c r="M110" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N110" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111">
+      <c t="s" r="A111" s="1">
+        <v>306</v>
+      </c>
+      <c t="s" r="B111" s="1">
+        <v>307</v>
+      </c>
+      <c t="s" r="C111" s="1">
+        <v>311</v>
+      </c>
+      <c t="s" r="D111" s="1">
+        <v>312</v>
+      </c>
+      <c t="s" r="E111" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F111" s="1">
+        <v>310</v>
+      </c>
+      <c r="G111" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H111" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I111" s="3">
+        <v>21</v>
+      </c>
+      <c r="J111" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K111" s="1">
+        <v>21</v>
+      </c>
+      <c r="L111" s="4">
+        <v>44118</v>
+      </c>
+      <c r="M111" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N111" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112">
+      <c t="s" r="A112" s="1">
+        <v>306</v>
+      </c>
+      <c t="s" r="B112" s="1">
+        <v>307</v>
+      </c>
+      <c t="s" r="C112" s="1">
+        <v>313</v>
+      </c>
+      <c t="s" r="D112" s="1">
+        <v>314</v>
+      </c>
+      <c t="s" r="E112" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F112" s="1">
+        <v>310</v>
+      </c>
+      <c r="G112" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H112" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I112" s="3">
+        <v>21</v>
+      </c>
+      <c r="J112" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K112" s="1">
+        <v>21</v>
+      </c>
+      <c r="L112" s="4">
+        <v>44118</v>
+      </c>
+      <c r="M112" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N112" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113">
+      <c t="s" r="A113" s="1">
+        <v>306</v>
+      </c>
+      <c t="s" r="B113" s="1">
+        <v>307</v>
+      </c>
+      <c t="s" r="C113" s="1">
+        <v>315</v>
+      </c>
+      <c t="s" r="D113" s="1">
+        <v>316</v>
+      </c>
+      <c t="s" r="E113" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F113" s="1">
+        <v>310</v>
+      </c>
+      <c r="G113" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H113" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I113" s="3">
+        <v>21</v>
+      </c>
+      <c r="J113" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K113" s="1">
+        <v>21</v>
+      </c>
+      <c r="L113" s="4">
+        <v>44118</v>
+      </c>
+      <c r="M113" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N113" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114">
+      <c t="s" r="A114" s="1">
+        <v>306</v>
+      </c>
+      <c t="s" r="B114" s="1">
+        <v>307</v>
+      </c>
+      <c t="s" r="C114" s="1">
+        <v>317</v>
+      </c>
+      <c t="s" r="D114" s="1">
+        <v>318</v>
+      </c>
+      <c t="s" r="E114" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F114" s="1">
+        <v>310</v>
+      </c>
+      <c r="G114" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H114" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I114" s="3">
+        <v>21</v>
+      </c>
+      <c r="J114" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K114" s="1">
+        <v>21</v>
+      </c>
+      <c r="L114" s="4">
+        <v>44118</v>
+      </c>
+      <c r="M114" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N114" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115">
+      <c t="s" r="A115" s="1">
+        <v>306</v>
+      </c>
+      <c t="s" r="B115" s="1">
+        <v>307</v>
+      </c>
+      <c t="s" r="C115" s="1">
+        <v>319</v>
+      </c>
+      <c t="s" r="D115" s="1">
+        <v>320</v>
+      </c>
+      <c t="s" r="E115" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F115" s="1">
+        <v>310</v>
+      </c>
+      <c r="G115" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H115" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I115" s="3">
+        <v>21</v>
+      </c>
+      <c r="J115" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K115" s="1">
+        <v>21</v>
+      </c>
+      <c r="L115" s="4">
+        <v>44118</v>
+      </c>
+      <c r="M115" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N115" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116">
+      <c t="s" r="A116" s="1">
+        <v>306</v>
+      </c>
+      <c t="s" r="B116" s="1">
+        <v>307</v>
+      </c>
+      <c t="s" r="C116" s="1">
+        <v>321</v>
+      </c>
+      <c t="s" r="D116" s="1">
+        <v>322</v>
+      </c>
+      <c t="s" r="E116" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F116" s="1">
+        <v>310</v>
+      </c>
+      <c r="G116" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H116" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I116" s="3">
+        <v>21</v>
+      </c>
+      <c r="J116" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K116" s="1">
+        <v>21</v>
+      </c>
+      <c r="L116" s="4">
+        <v>44118</v>
+      </c>
+      <c r="M116" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N116" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117">
+      <c t="s" r="A117" s="1">
+        <v>306</v>
+      </c>
+      <c t="s" r="B117" s="1">
+        <v>307</v>
+      </c>
+      <c t="s" r="C117" s="1">
+        <v>323</v>
+      </c>
+      <c t="s" r="D117" s="1">
+        <v>324</v>
+      </c>
+      <c t="s" r="E117" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F117" s="1">
+        <v>310</v>
+      </c>
+      <c r="G117" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H117" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I117" s="3">
+        <v>21</v>
+      </c>
+      <c r="J117" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K117" s="1">
+        <v>21</v>
+      </c>
+      <c r="L117" s="4">
+        <v>44118</v>
+      </c>
+      <c r="M117" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N117" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118">
+      <c t="s" r="A118" s="1">
+        <v>306</v>
+      </c>
+      <c t="s" r="B118" s="1">
+        <v>307</v>
+      </c>
+      <c t="s" r="C118" s="1">
+        <v>325</v>
+      </c>
+      <c t="s" r="D118" s="1">
+        <v>326</v>
+      </c>
+      <c t="s" r="E118" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F118" s="1">
+        <v>310</v>
+      </c>
+      <c r="G118" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H118" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I118" s="3">
+        <v>21</v>
+      </c>
+      <c r="J118" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K118" s="1">
+        <v>21</v>
+      </c>
+      <c r="L118" s="4">
+        <v>44118</v>
+      </c>
+      <c r="M118" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N118" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119">
+      <c t="s" r="A119" s="1">
+        <v>306</v>
+      </c>
+      <c t="s" r="B119" s="1">
+        <v>307</v>
+      </c>
+      <c t="s" r="C119" s="1">
+        <v>327</v>
+      </c>
+      <c t="s" r="D119" s="1">
+        <v>328</v>
+      </c>
+      <c t="s" r="E119" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F119" s="1">
+        <v>310</v>
+      </c>
+      <c r="G119" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H119" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I119" s="3">
+        <v>21</v>
+      </c>
+      <c r="J119" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K119" s="1">
+        <v>21</v>
+      </c>
+      <c r="L119" s="4">
+        <v>44118</v>
+      </c>
+      <c r="M119" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N119" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120">
+      <c t="s" r="A120" s="1">
+        <v>306</v>
+      </c>
+      <c t="s" r="B120" s="1">
+        <v>307</v>
+      </c>
+      <c t="s" r="C120" s="1">
+        <v>329</v>
+      </c>
+      <c t="s" r="D120" s="1">
+        <v>330</v>
+      </c>
+      <c t="s" r="E120" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F120" s="1">
+        <v>310</v>
+      </c>
+      <c r="G120" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H120" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I120" s="3">
+        <v>21</v>
+      </c>
+      <c r="J120" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K120" s="1">
+        <v>21</v>
+      </c>
+      <c r="L120" s="4">
+        <v>44118</v>
+      </c>
+      <c r="M120" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N120" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121">
+      <c t="s" r="A121" s="1">
+        <v>331</v>
+      </c>
+      <c t="s" r="B121" s="1">
+        <v>332</v>
+      </c>
+      <c t="s" r="C121" s="1">
+        <v>333</v>
+      </c>
+      <c t="s" r="D121" s="1">
+        <v>334</v>
+      </c>
+      <c t="s" r="E121" s="1">
+        <v>335</v>
+      </c>
+      <c t="s" r="F121" s="1">
+        <v>336</v>
+      </c>
+      <c r="G121" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="H121" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I121" s="3">
+        <v>21</v>
+      </c>
+      <c r="J121" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K121" s="1">
+        <v>21</v>
+      </c>
+      <c r="L121" s="4">
+        <v>44114</v>
+      </c>
+      <c r="M121" s="4">
+        <v>44174</v>
+      </c>
+      <c t="s" r="N121" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122">
+      <c t="s" r="A122" s="1">
+        <v>30</v>
+      </c>
+      <c t="s" r="B122" s="1">
+        <v>31</v>
+      </c>
+      <c t="s" r="C122" s="1">
+        <v>337</v>
+      </c>
+      <c t="s" r="D122" s="1">
+        <v>338</v>
+      </c>
+      <c t="s" r="E122" s="1">
+        <v>335</v>
+      </c>
+      <c t="s" r="F122" s="1">
+        <v>336</v>
+      </c>
+      <c r="G122" s="2">
+        <v>16</v>
+      </c>
+      <c t="s" r="H122" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I122" s="3">
+        <v>21</v>
+      </c>
+      <c r="J122" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K122" s="1">
+        <v>21</v>
+      </c>
+      <c r="L122" s="4">
+        <v>44116</v>
+      </c>
+      <c r="M122" s="4">
+        <v>44176</v>
+      </c>
+      <c t="s" r="N122" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123">
+      <c t="s" r="A123" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B123" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C123" s="1">
+        <v>339</v>
+      </c>
+      <c t="s" r="D123" s="1">
+        <v>93</v>
+      </c>
+      <c t="s" r="E123" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F123" s="1">
+        <v>278</v>
+      </c>
+      <c r="G123" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H123" s="1">
+        <v>89</v>
+      </c>
+      <c r="I123" s="3">
+        <v>8</v>
+      </c>
+      <c r="J123" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K123" s="1">
+        <v>21</v>
+      </c>
+      <c r="L123" s="4">
+        <v>44148.410370370366</v>
+      </c>
+      <c r="M123" s="4">
+        <v>44177.410370370366</v>
+      </c>
+      <c t="s" r="N123" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124">
+      <c t="s" r="A124" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B124" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C124" s="1">
+        <v>340</v>
+      </c>
+      <c t="s" r="D124" s="1">
+        <v>93</v>
+      </c>
+      <c t="s" r="E124" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F124" s="1">
+        <v>53</v>
+      </c>
+      <c r="G124" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H124" s="1">
+        <v>89</v>
+      </c>
+      <c r="I124" s="3">
+        <v>7</v>
+      </c>
+      <c r="J124" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K124" s="1">
+        <v>21</v>
+      </c>
+      <c r="L124" s="4">
+        <v>44148.410370370366</v>
+      </c>
+      <c r="M124" s="4">
+        <v>44177.410370370366</v>
+      </c>
+      <c t="s" r="N124" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125">
+      <c t="s" r="A125" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B125" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C125" s="1">
+        <v>341</v>
+      </c>
+      <c t="s" r="D125" s="1">
+        <v>93</v>
+      </c>
+      <c t="s" r="E125" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F125" s="1">
+        <v>53</v>
+      </c>
+      <c r="G125" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H125" s="1">
+        <v>89</v>
+      </c>
+      <c r="I125" s="3">
+        <v>7</v>
+      </c>
+      <c r="J125" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K125" s="1">
+        <v>21</v>
+      </c>
+      <c r="L125" s="4">
+        <v>44148.410370370366</v>
+      </c>
+      <c r="M125" s="4">
+        <v>44177.410370370366</v>
+      </c>
+      <c t="s" r="N125" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126">
+      <c t="s" r="A126" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B126" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C126" s="1">
+        <v>342</v>
+      </c>
+      <c t="s" r="D126" s="1">
+        <v>93</v>
+      </c>
+      <c t="s" r="E126" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F126" s="1">
+        <v>53</v>
+      </c>
+      <c r="G126" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H126" s="1">
+        <v>89</v>
+      </c>
+      <c r="I126" s="3">
+        <v>7</v>
+      </c>
+      <c r="J126" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K126" s="1">
+        <v>21</v>
+      </c>
+      <c r="L126" s="4">
+        <v>44148.410370370366</v>
+      </c>
+      <c r="M126" s="4">
+        <v>44177.410370370366</v>
+      </c>
+      <c t="s" r="N126" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127">
+      <c t="s" r="A127" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B127" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C127" s="1">
+        <v>343</v>
+      </c>
+      <c t="s" r="D127" s="1">
+        <v>144</v>
+      </c>
+      <c t="s" r="E127" s="1">
+        <v>62</v>
+      </c>
+      <c t="s" r="F127" s="1">
+        <v>108</v>
+      </c>
+      <c r="G127" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H127" s="1">
+        <v>89</v>
+      </c>
+      <c r="I127" s="3">
+        <v>8</v>
+      </c>
+      <c r="J127" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K127" s="1">
+        <v>21</v>
+      </c>
+      <c r="L127" s="4">
+        <v>44148.548217592594</v>
+      </c>
+      <c r="M127" s="4">
+        <v>44177.548217592594</v>
+      </c>
+      <c t="s" r="N127" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128">
+      <c t="s" r="A128" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B128" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C128" s="1">
+        <v>344</v>
+      </c>
+      <c t="s" r="D128" s="1">
+        <v>87</v>
+      </c>
+      <c t="s" r="E128" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F128" s="1">
+        <v>75</v>
+      </c>
+      <c r="G128" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H128" s="1">
+        <v>89</v>
+      </c>
+      <c r="I128" s="3">
+        <v>8</v>
+      </c>
+      <c r="J128" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K128" s="1">
+        <v>21</v>
+      </c>
+      <c r="L128" s="4">
+        <v>44148.418194444443</v>
+      </c>
+      <c r="M128" s="4">
+        <v>44177.418194444443</v>
+      </c>
+      <c t="s" r="N128" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129">
+      <c t="s" r="A129" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B129" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C129" s="1">
+        <v>345</v>
+      </c>
+      <c t="s" r="D129" s="1">
+        <v>87</v>
+      </c>
+      <c t="s" r="E129" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F129" s="1">
+        <v>75</v>
+      </c>
+      <c r="G129" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H129" s="1">
+        <v>89</v>
+      </c>
+      <c r="I129" s="3">
+        <v>8</v>
+      </c>
+      <c r="J129" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K129" s="1">
+        <v>21</v>
+      </c>
+      <c r="L129" s="4">
+        <v>44148.418194444443</v>
+      </c>
+      <c r="M129" s="4">
+        <v>44177.418194444443</v>
+      </c>
+      <c t="s" r="N129" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130">
+      <c t="s" r="A130" s="1">
+        <v>346</v>
+      </c>
+      <c t="s" r="B130" s="1">
+        <v>347</v>
+      </c>
+      <c t="s" r="C130" s="1">
+        <v>348</v>
+      </c>
+      <c t="s" r="D130" s="1">
+        <v>349</v>
+      </c>
+      <c t="s" r="E130" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F130" s="1">
+        <v>75</v>
+      </c>
+      <c r="G130" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H130" s="1">
+        <v>89</v>
+      </c>
+      <c r="I130" s="3">
+        <v>8</v>
+      </c>
+      <c r="J130" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K130" s="1">
+        <v>21</v>
+      </c>
+      <c r="L130" s="4">
+        <v>44148.530173611107</v>
+      </c>
+      <c r="M130" s="4">
+        <v>44177.530173611107</v>
+      </c>
+      <c t="s" r="N130" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131">
+      <c t="s" r="A131" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B131" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C131" s="1">
+        <v>350</v>
+      </c>
+      <c t="s" r="D131" s="1">
+        <v>87</v>
+      </c>
+      <c t="s" r="E131" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F131" s="1">
+        <v>75</v>
+      </c>
+      <c r="G131" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H131" s="1">
+        <v>89</v>
+      </c>
+      <c r="I131" s="3">
+        <v>8</v>
+      </c>
+      <c r="J131" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K131" s="1">
+        <v>21</v>
+      </c>
+      <c r="L131" s="4">
+        <v>44148.418194444443</v>
+      </c>
+      <c r="M131" s="4">
+        <v>44177.418194444443</v>
+      </c>
+      <c t="s" r="N131" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132">
+      <c t="s" r="A132" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B132" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C132" s="1">
+        <v>351</v>
+      </c>
+      <c t="s" r="D132" s="1">
+        <v>87</v>
+      </c>
+      <c t="s" r="E132" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F132" s="1">
+        <v>27</v>
+      </c>
+      <c r="G132" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H132" s="1">
+        <v>89</v>
+      </c>
+      <c r="I132" s="3">
+        <v>8</v>
+      </c>
+      <c r="J132" s="2">
+        <v>2</v>
+      </c>
+      <c t="s" r="K132" s="1">
+        <v>21</v>
+      </c>
+      <c r="L132" s="4">
+        <v>44148.418194444443</v>
+      </c>
+      <c r="M132" s="4">
+        <v>44177.418194444443</v>
+      </c>
+      <c t="s" r="N132" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133">
+      <c t="s" r="A133" s="1">
+        <v>30</v>
+      </c>
+      <c t="s" r="B133" s="1">
+        <v>31</v>
+      </c>
+      <c t="s" r="C133" s="1">
+        <v>352</v>
+      </c>
+      <c t="s" r="D133" s="1">
+        <v>353</v>
+      </c>
+      <c t="s" r="E133" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F133" s="1">
+        <v>27</v>
+      </c>
+      <c r="G133" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H133" s="1">
+        <v>89</v>
+      </c>
+      <c r="I133" s="3">
+        <v>8</v>
+      </c>
+      <c r="J133" s="2">
+        <v>2</v>
+      </c>
+      <c t="s" r="K133" s="1">
+        <v>21</v>
+      </c>
+      <c r="L133" s="4">
+        <v>44144.682407407403</v>
+      </c>
+      <c r="M133" s="4">
+        <v>44173.682407407403</v>
+      </c>
+      <c t="s" r="N133" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134">
+      <c t="s" r="A134" s="1">
+        <v>206</v>
+      </c>
+      <c t="s" r="B134" s="1">
+        <v>207</v>
+      </c>
+      <c t="s" r="C134" s="1">
+        <v>354</v>
+      </c>
+      <c t="s" r="D134" s="1">
+        <v>209</v>
+      </c>
+      <c t="s" r="E134" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F134" s="1">
+        <v>185</v>
+      </c>
+      <c r="G134" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H134" s="1">
+        <v>89</v>
+      </c>
+      <c r="I134" s="3">
+        <v>8</v>
+      </c>
+      <c r="J134" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K134" s="1">
+        <v>21</v>
+      </c>
+      <c r="L134" s="4">
+        <v>44148.570914351847</v>
+      </c>
+      <c r="M134" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N134" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135">
+      <c t="s" r="A135" s="1">
+        <v>206</v>
+      </c>
+      <c t="s" r="B135" s="1">
+        <v>207</v>
+      </c>
+      <c t="s" r="C135" s="1">
+        <v>355</v>
+      </c>
+      <c t="s" r="D135" s="1">
+        <v>209</v>
+      </c>
+      <c t="s" r="E135" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F135" s="1">
+        <v>185</v>
+      </c>
+      <c r="G135" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H135" s="1">
+        <v>89</v>
+      </c>
+      <c r="I135" s="3">
+        <v>8</v>
+      </c>
+      <c r="J135" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K135" s="1">
+        <v>21</v>
+      </c>
+      <c r="L135" s="4">
+        <v>44148.570914351847</v>
+      </c>
+      <c r="M135" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N135" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136">
+      <c t="s" r="A136" s="1">
+        <v>206</v>
+      </c>
+      <c t="s" r="B136" s="1">
+        <v>207</v>
+      </c>
+      <c t="s" r="C136" s="1">
+        <v>356</v>
+      </c>
+      <c t="s" r="D136" s="1">
+        <v>209</v>
+      </c>
+      <c t="s" r="E136" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F136" s="1">
+        <v>185</v>
+      </c>
+      <c r="G136" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H136" s="1">
+        <v>89</v>
+      </c>
+      <c r="I136" s="3">
+        <v>8</v>
+      </c>
+      <c r="J136" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K136" s="1">
+        <v>21</v>
+      </c>
+      <c r="L136" s="4">
+        <v>44148.570914351847</v>
+      </c>
+      <c r="M136" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N136" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137">
+      <c t="s" r="A137" s="1">
+        <v>206</v>
+      </c>
+      <c t="s" r="B137" s="1">
+        <v>207</v>
+      </c>
+      <c t="s" r="C137" s="1">
+        <v>357</v>
+      </c>
+      <c t="s" r="D137" s="1">
+        <v>209</v>
+      </c>
+      <c t="s" r="E137" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F137" s="1">
+        <v>185</v>
+      </c>
+      <c r="G137" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H137" s="1">
+        <v>89</v>
+      </c>
+      <c r="I137" s="3">
+        <v>8</v>
+      </c>
+      <c r="J137" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K137" s="1">
+        <v>21</v>
+      </c>
+      <c r="L137" s="4">
+        <v>44148.570914351847</v>
+      </c>
+      <c r="M137" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N137" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138">
+      <c t="s" r="A138" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B138" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C138" s="1">
+        <v>358</v>
+      </c>
+      <c t="s" r="D138" s="1">
+        <v>93</v>
+      </c>
+      <c t="s" r="E138" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F138" s="1">
+        <v>278</v>
+      </c>
+      <c r="G138" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H138" s="1">
+        <v>89</v>
+      </c>
+      <c r="I138" s="3">
+        <v>8</v>
+      </c>
+      <c r="J138" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K138" s="1">
+        <v>21</v>
+      </c>
+      <c r="L138" s="4">
+        <v>44148.410370370366</v>
+      </c>
+      <c r="M138" s="4">
+        <v>44177.410370370366</v>
+      </c>
+      <c t="s" r="N138" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139">
+      <c t="s" r="A139" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B139" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C139" s="1">
+        <v>359</v>
+      </c>
+      <c t="s" r="D139" s="1">
+        <v>93</v>
+      </c>
+      <c t="s" r="E139" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F139" s="1">
+        <v>240</v>
+      </c>
+      <c r="G139" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H139" s="1">
+        <v>89</v>
+      </c>
+      <c r="I139" s="3">
+        <v>10</v>
+      </c>
+      <c r="J139" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K139" s="1">
+        <v>21</v>
+      </c>
+      <c r="L139" s="4">
+        <v>44148.410370370366</v>
+      </c>
+      <c r="M139" s="4">
+        <v>44177.410370370366</v>
+      </c>
+      <c t="s" r="N139" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140">
+      <c t="s" r="A140" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B140" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C140" s="1">
+        <v>360</v>
+      </c>
+      <c t="s" r="D140" s="1">
+        <v>93</v>
+      </c>
+      <c t="s" r="E140" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F140" s="1">
+        <v>240</v>
+      </c>
+      <c r="G140" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H140" s="1">
+        <v>89</v>
+      </c>
+      <c r="I140" s="3">
+        <v>10</v>
+      </c>
+      <c r="J140" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K140" s="1">
+        <v>21</v>
+      </c>
+      <c r="L140" s="4">
+        <v>44148.410370370366</v>
+      </c>
+      <c r="M140" s="4">
+        <v>44177.410370370366</v>
+      </c>
+      <c t="s" r="N140" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141">
+      <c t="s" r="A141" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B141" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C141" s="1">
+        <v>361</v>
+      </c>
+      <c t="s" r="D141" s="1">
+        <v>93</v>
+      </c>
+      <c t="s" r="E141" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F141" s="1">
+        <v>240</v>
+      </c>
+      <c r="G141" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H141" s="1">
+        <v>89</v>
+      </c>
+      <c r="I141" s="3">
+        <v>10</v>
+      </c>
+      <c r="J141" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K141" s="1">
+        <v>21</v>
+      </c>
+      <c r="L141" s="4">
+        <v>44148.410370370366</v>
+      </c>
+      <c r="M141" s="4">
+        <v>44177.410370370366</v>
+      </c>
+      <c t="s" r="N141" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142">
+      <c t="s" r="A142" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B142" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C142" s="1">
+        <v>362</v>
+      </c>
+      <c t="s" r="D142" s="1">
+        <v>93</v>
+      </c>
+      <c t="s" r="E142" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F142" s="1">
+        <v>240</v>
+      </c>
+      <c r="G142" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H142" s="1">
+        <v>89</v>
+      </c>
+      <c r="I142" s="3">
+        <v>10</v>
+      </c>
+      <c r="J142" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K142" s="1">
+        <v>21</v>
+      </c>
+      <c r="L142" s="4">
+        <v>44148.410370370366</v>
+      </c>
+      <c r="M142" s="4">
+        <v>44177.410370370366</v>
+      </c>
+      <c t="s" r="N142" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143">
+      <c t="s" r="A143" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B143" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C143" s="1">
+        <v>363</v>
+      </c>
+      <c t="s" r="D143" s="1">
+        <v>364</v>
+      </c>
+      <c t="s" r="E143" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F143" s="1">
+        <v>240</v>
+      </c>
+      <c r="G143" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H143" s="1">
+        <v>89</v>
+      </c>
+      <c r="I143" s="3">
+        <v>10</v>
+      </c>
+      <c r="J143" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K143" s="1">
+        <v>21</v>
+      </c>
+      <c r="L143" s="4">
+        <v>44148.408877314811</v>
+      </c>
+      <c r="M143" s="4">
+        <v>44177.408877314811</v>
+      </c>
+      <c t="s" r="N143" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144">
+      <c t="s" r="A144" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B144" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C144" s="1">
+        <v>365</v>
+      </c>
+      <c t="s" r="D144" s="1">
+        <v>93</v>
+      </c>
+      <c t="s" r="E144" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F144" s="1">
+        <v>240</v>
+      </c>
+      <c r="G144" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H144" s="1">
+        <v>89</v>
+      </c>
+      <c r="I144" s="3">
+        <v>10</v>
+      </c>
+      <c r="J144" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K144" s="1">
+        <v>21</v>
+      </c>
+      <c r="L144" s="4">
+        <v>44148.410370370366</v>
+      </c>
+      <c r="M144" s="4">
+        <v>44177.410370370366</v>
+      </c>
+      <c t="s" r="N144" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145">
+      <c t="s" r="A145" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B145" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C145" s="1">
+        <v>366</v>
+      </c>
+      <c t="s" r="D145" s="1">
+        <v>93</v>
+      </c>
+      <c t="s" r="E145" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F145" s="1">
+        <v>240</v>
+      </c>
+      <c r="G145" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H145" s="1">
+        <v>89</v>
+      </c>
+      <c r="I145" s="3">
+        <v>10</v>
+      </c>
+      <c r="J145" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K145" s="1">
+        <v>21</v>
+      </c>
+      <c r="L145" s="4">
+        <v>44148.410370370366</v>
+      </c>
+      <c r="M145" s="4">
+        <v>44177.410370370366</v>
+      </c>
+      <c t="s" r="N145" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146">
+      <c t="s" r="A146" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B146" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C146" s="1">
+        <v>367</v>
+      </c>
+      <c t="s" r="D146" s="1">
+        <v>93</v>
+      </c>
+      <c t="s" r="E146" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F146" s="1">
+        <v>240</v>
+      </c>
+      <c r="G146" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H146" s="1">
+        <v>89</v>
+      </c>
+      <c r="I146" s="3">
+        <v>10</v>
+      </c>
+      <c r="J146" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K146" s="1">
+        <v>21</v>
+      </c>
+      <c r="L146" s="4">
+        <v>44148.410370370366</v>
+      </c>
+      <c r="M146" s="4">
+        <v>44177.410370370366</v>
+      </c>
+      <c t="s" r="N146" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147">
+      <c t="s" r="A147" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B147" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C147" s="1">
+        <v>368</v>
+      </c>
+      <c t="s" r="D147" s="1">
+        <v>93</v>
+      </c>
+      <c t="s" r="E147" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F147" s="1">
+        <v>240</v>
+      </c>
+      <c r="G147" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H147" s="1">
+        <v>89</v>
+      </c>
+      <c r="I147" s="3">
+        <v>10</v>
+      </c>
+      <c r="J147" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K147" s="1">
+        <v>21</v>
+      </c>
+      <c r="L147" s="4">
+        <v>44148.410370370366</v>
+      </c>
+      <c r="M147" s="4">
+        <v>44177.410370370366</v>
+      </c>
+      <c t="s" r="N147" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148">
+      <c t="s" r="A148" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B148" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C148" s="1">
+        <v>369</v>
+      </c>
+      <c t="s" r="D148" s="1">
+        <v>93</v>
+      </c>
+      <c t="s" r="E148" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F148" s="1">
+        <v>240</v>
+      </c>
+      <c r="G148" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H148" s="1">
+        <v>89</v>
+      </c>
+      <c r="I148" s="3">
+        <v>10</v>
+      </c>
+      <c r="J148" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K148" s="1">
+        <v>21</v>
+      </c>
+      <c r="L148" s="4">
+        <v>44148.410370370366</v>
+      </c>
+      <c r="M148" s="4">
+        <v>44177.410370370366</v>
+      </c>
+      <c t="s" r="N148" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149">
+      <c t="s" r="A149" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B149" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C149" s="1">
+        <v>370</v>
+      </c>
+      <c t="s" r="D149" s="1">
+        <v>93</v>
+      </c>
+      <c t="s" r="E149" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F149" s="1">
+        <v>240</v>
+      </c>
+      <c r="G149" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H149" s="1">
+        <v>89</v>
+      </c>
+      <c r="I149" s="3">
+        <v>10</v>
+      </c>
+      <c r="J149" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K149" s="1">
+        <v>21</v>
+      </c>
+      <c r="L149" s="4">
+        <v>44148.410370370366</v>
+      </c>
+      <c r="M149" s="4">
+        <v>44177.410370370366</v>
+      </c>
+      <c t="s" r="N149" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150">
+      <c t="s" r="A150" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B150" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C150" s="1">
+        <v>371</v>
+      </c>
+      <c t="s" r="D150" s="1">
+        <v>93</v>
+      </c>
+      <c t="s" r="E150" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F150" s="1">
+        <v>240</v>
+      </c>
+      <c r="G150" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H150" s="1">
+        <v>89</v>
+      </c>
+      <c r="I150" s="3">
+        <v>10</v>
+      </c>
+      <c r="J150" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K150" s="1">
+        <v>21</v>
+      </c>
+      <c r="L150" s="4">
+        <v>44148.410370370366</v>
+      </c>
+      <c r="M150" s="4">
+        <v>44177.410370370366</v>
+      </c>
+      <c t="s" r="N150" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151">
+      <c t="s" r="A151" s="1">
+        <v>42</v>
+      </c>
+      <c t="s" r="B151" s="1">
+        <v>43</v>
+      </c>
+      <c t="s" r="C151" s="1">
+        <v>372</v>
+      </c>
+      <c t="s" r="D151" s="1">
+        <v>373</v>
+      </c>
+      <c t="s" r="E151" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F151" s="1">
+        <v>46</v>
+      </c>
+      <c r="G151" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H151" s="1">
+        <v>21</v>
+      </c>
+      <c t="s" r="I151" s="3">
+        <v>21</v>
+      </c>
+      <c r="J151" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K151" s="1">
+        <v>21</v>
+      </c>
+      <c r="L151" s="4">
+        <v>44118</v>
+      </c>
+      <c r="M151" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N151" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152">
+      <c t="s" r="A152" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B152" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C152" s="1">
+        <v>374</v>
+      </c>
+      <c t="s" r="D152" s="1">
+        <v>93</v>
+      </c>
+      <c t="s" r="E152" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F152" s="1">
+        <v>53</v>
+      </c>
+      <c r="G152" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H152" s="1">
+        <v>89</v>
+      </c>
+      <c r="I152" s="3">
+        <v>7</v>
+      </c>
+      <c r="J152" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K152" s="1">
+        <v>21</v>
+      </c>
+      <c r="L152" s="4">
+        <v>44148.410370370366</v>
+      </c>
+      <c r="M152" s="4">
+        <v>44177.410370370366</v>
+      </c>
+      <c t="s" r="N152" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153">
+      <c t="s" r="A153" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B153" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C153" s="1">
+        <v>375</v>
+      </c>
+      <c t="s" r="D153" s="1">
+        <v>93</v>
+      </c>
+      <c t="s" r="E153" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F153" s="1">
+        <v>53</v>
+      </c>
+      <c r="G153" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H153" s="1">
+        <v>89</v>
+      </c>
+      <c r="I153" s="3">
+        <v>7</v>
+      </c>
+      <c r="J153" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K153" s="1">
+        <v>21</v>
+      </c>
+      <c r="L153" s="4">
+        <v>44148.410370370366</v>
+      </c>
+      <c r="M153" s="4">
+        <v>44177.410370370366</v>
+      </c>
+      <c t="s" r="N153" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154">
+      <c t="s" r="A154" s="1">
+        <v>206</v>
+      </c>
+      <c t="s" r="B154" s="1">
+        <v>207</v>
+      </c>
+      <c t="s" r="C154" s="1">
+        <v>376</v>
+      </c>
+      <c t="s" r="D154" s="1">
+        <v>209</v>
+      </c>
+      <c t="s" r="E154" s="1">
+        <v>179</v>
+      </c>
+      <c t="s" r="F154" s="1">
+        <v>185</v>
+      </c>
+      <c r="G154" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H154" s="1">
+        <v>89</v>
+      </c>
+      <c r="I154" s="3">
+        <v>8</v>
+      </c>
+      <c r="J154" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K154" s="1">
+        <v>21</v>
+      </c>
+      <c r="L154" s="4">
+        <v>44148.570914351847</v>
+      </c>
+      <c r="M154" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N154" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155">
+      <c t="s" r="A155" s="1">
+        <v>84</v>
+      </c>
+      <c t="s" r="B155" s="1">
+        <v>85</v>
+      </c>
+      <c t="s" r="C155" s="1">
+        <v>377</v>
+      </c>
+      <c t="s" r="D155" s="1">
+        <v>87</v>
+      </c>
+      <c t="s" r="E155" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F155" s="1">
+        <v>27</v>
+      </c>
+      <c r="G155" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H155" s="1">
+        <v>89</v>
+      </c>
+      <c r="I155" s="3">
+        <v>8</v>
+      </c>
+      <c r="J155" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K155" s="1">
+        <v>21</v>
+      </c>
+      <c r="L155" s="4">
+        <v>44148.418194444443</v>
+      </c>
+      <c r="M155" s="4">
+        <v>44177.418194444443</v>
+      </c>
+      <c t="s" r="N155" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156">
+      <c t="s" r="A156" s="1">
+        <v>119</v>
+      </c>
+      <c t="s" r="B156" s="1">
+        <v>120</v>
+      </c>
+      <c t="s" r="C156" s="1">
+        <v>378</v>
+      </c>
+      <c t="s" r="D156" s="1">
+        <v>379</v>
+      </c>
+      <c t="s" r="E156" s="1">
+        <v>62</v>
+      </c>
+      <c t="s" r="F156" s="1">
+        <v>380</v>
+      </c>
+      <c r="G156" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H156" s="1">
+        <v>163</v>
+      </c>
+      <c r="I156" s="3">
+        <v>10</v>
+      </c>
+      <c r="J156" s="2">
+        <v>2</v>
+      </c>
+      <c t="s" r="K156" s="1">
+        <v>381</v>
+      </c>
+      <c r="L156" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M156" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N156" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157">
+      <c t="s" r="A157" s="1">
+        <v>119</v>
+      </c>
+      <c t="s" r="B157" s="1">
+        <v>120</v>
+      </c>
+      <c t="s" r="C157" s="1">
+        <v>382</v>
+      </c>
+      <c t="s" r="D157" s="1">
+        <v>379</v>
+      </c>
+      <c t="s" r="E157" s="1">
+        <v>62</v>
+      </c>
+      <c t="s" r="F157" s="1">
+        <v>380</v>
+      </c>
+      <c r="G157" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H157" s="1">
+        <v>163</v>
+      </c>
+      <c r="I157" s="3">
+        <v>10</v>
+      </c>
+      <c r="J157" s="2">
+        <v>2</v>
+      </c>
+      <c t="s" r="K157" s="1">
+        <v>383</v>
+      </c>
+      <c r="L157" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M157" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N157" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158">
+      <c t="s" r="A158" s="1">
+        <v>119</v>
+      </c>
+      <c t="s" r="B158" s="1">
+        <v>120</v>
+      </c>
+      <c t="s" r="C158" s="1">
+        <v>384</v>
+      </c>
+      <c t="s" r="D158" s="1">
+        <v>379</v>
+      </c>
+      <c t="s" r="E158" s="1">
+        <v>62</v>
+      </c>
+      <c t="s" r="F158" s="1">
+        <v>380</v>
+      </c>
+      <c r="G158" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H158" s="1">
+        <v>163</v>
+      </c>
+      <c r="I158" s="3">
+        <v>10</v>
+      </c>
+      <c r="J158" s="2">
+        <v>2</v>
+      </c>
+      <c t="s" r="K158" s="1">
+        <v>385</v>
+      </c>
+      <c r="L158" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M158" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N158" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159">
+      <c t="s" r="A159" s="1">
+        <v>119</v>
+      </c>
+      <c t="s" r="B159" s="1">
+        <v>120</v>
+      </c>
+      <c t="s" r="C159" s="1">
+        <v>386</v>
+      </c>
+      <c t="s" r="D159" s="1">
+        <v>387</v>
+      </c>
+      <c t="s" r="E159" s="1">
+        <v>62</v>
+      </c>
+      <c t="s" r="F159" s="1">
+        <v>380</v>
+      </c>
+      <c r="G159" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H159" s="1">
+        <v>163</v>
+      </c>
+      <c r="I159" s="3">
+        <v>10</v>
+      </c>
+      <c r="J159" s="2">
+        <v>2</v>
+      </c>
+      <c t="s" r="K159" s="1">
+        <v>388</v>
+      </c>
+      <c r="L159" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M159" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N159" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160">
+      <c t="s" r="A160" s="1">
+        <v>119</v>
+      </c>
+      <c t="s" r="B160" s="1">
+        <v>120</v>
+      </c>
+      <c t="s" r="C160" s="1">
+        <v>389</v>
+      </c>
+      <c t="s" r="D160" s="1">
+        <v>390</v>
+      </c>
+      <c t="s" r="E160" s="1">
+        <v>62</v>
+      </c>
+      <c t="s" r="F160" s="1">
+        <v>380</v>
+      </c>
+      <c r="G160" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H160" s="1">
+        <v>163</v>
+      </c>
+      <c r="I160" s="3">
+        <v>10</v>
+      </c>
+      <c r="J160" s="2">
+        <v>2</v>
+      </c>
+      <c t="s" r="K160" s="1">
+        <v>391</v>
+      </c>
+      <c r="L160" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M160" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N160" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161">
+      <c t="s" r="A161" s="1">
+        <v>119</v>
+      </c>
+      <c t="s" r="B161" s="1">
+        <v>120</v>
+      </c>
+      <c t="s" r="C161" s="1">
+        <v>392</v>
+      </c>
+      <c t="s" r="D161" s="1">
+        <v>393</v>
+      </c>
+      <c t="s" r="E161" s="1">
+        <v>62</v>
+      </c>
+      <c t="s" r="F161" s="1">
+        <v>380</v>
+      </c>
+      <c r="G161" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H161" s="1">
+        <v>163</v>
+      </c>
+      <c r="I161" s="3">
+        <v>10</v>
+      </c>
+      <c r="J161" s="2">
+        <v>2</v>
+      </c>
+      <c t="s" r="K161" s="1">
+        <v>394</v>
+      </c>
+      <c r="L161" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M161" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N161" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162">
+      <c t="s" r="A162" s="1">
+        <v>395</v>
+      </c>
+      <c t="s" r="B162" s="1">
+        <v>396</v>
+      </c>
+      <c t="s" r="C162" s="1">
+        <v>397</v>
+      </c>
+      <c t="s" r="D162" s="1">
+        <v>398</v>
+      </c>
+      <c t="s" r="E162" s="1">
+        <v>62</v>
+      </c>
+      <c t="s" r="F162" s="1">
+        <v>399</v>
+      </c>
+      <c r="G162" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H162" s="1">
+        <v>163</v>
+      </c>
+      <c r="I162" s="3">
+        <v>10</v>
+      </c>
+      <c r="J162" s="2">
+        <v>2</v>
+      </c>
+      <c t="s" r="K162" s="1">
+        <v>21</v>
+      </c>
+      <c r="L162" s="4">
+        <v>44145.690520833334</v>
+      </c>
+      <c r="M162" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N162" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163">
+      <c t="s" r="A163" s="1">
+        <v>395</v>
+      </c>
+      <c t="s" r="B163" s="1">
+        <v>396</v>
+      </c>
+      <c t="s" r="C163" s="1">
+        <v>400</v>
+      </c>
+      <c t="s" r="D163" s="1">
+        <v>401</v>
+      </c>
+      <c t="s" r="E163" s="1">
+        <v>62</v>
+      </c>
+      <c t="s" r="F163" s="1">
+        <v>399</v>
+      </c>
+      <c r="G163" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H163" s="1">
+        <v>163</v>
+      </c>
+      <c r="I163" s="3">
+        <v>10</v>
+      </c>
+      <c r="J163" s="2">
+        <v>2</v>
+      </c>
+      <c t="s" r="K163" s="1">
+        <v>21</v>
+      </c>
+      <c r="L163" s="4">
+        <v>44145.698344907403</v>
+      </c>
+      <c r="M163" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N163" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164">
+      <c t="s" r="A164" s="1">
+        <v>206</v>
+      </c>
+      <c t="s" r="B164" s="1">
+        <v>207</v>
+      </c>
+      <c t="s" r="C164" s="1">
+        <v>402</v>
+      </c>
+      <c t="s" r="D164" s="1">
+        <v>209</v>
+      </c>
+      <c t="s" r="E164" s="1">
+        <v>62</v>
+      </c>
+      <c t="s" r="F164" s="1">
+        <v>399</v>
+      </c>
+      <c r="G164" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H164" s="1">
+        <v>163</v>
+      </c>
+      <c r="I164" s="3">
+        <v>10</v>
+      </c>
+      <c r="J164" s="2">
+        <v>2</v>
+      </c>
+      <c t="s" r="K164" s="1">
+        <v>21</v>
+      </c>
+      <c r="L164" s="4">
+        <v>44148.570914351847</v>
+      </c>
+      <c r="M164" s="4">
+        <v>44178</v>
+      </c>
+      <c t="s" r="N164" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165">
+      <c t="s" r="A165" s="1">
+        <v>395</v>
+      </c>
+      <c t="s" r="B165" s="1">
+        <v>396</v>
+      </c>
+      <c t="s" r="C165" s="1">
+        <v>403</v>
+      </c>
+      <c t="s" r="D165" s="1">
+        <v>404</v>
+      </c>
+      <c t="s" r="E165" s="1">
+        <v>62</v>
+      </c>
+      <c t="s" r="F165" s="1">
+        <v>399</v>
+      </c>
+      <c r="G165" s="2">
+        <v>15.6</v>
+      </c>
+      <c t="s" r="H165" s="1">
+        <v>163</v>
+      </c>
+      <c r="I165" s="3">
+        <v>10</v>
+      </c>
+      <c r="J165" s="2">
+        <v>2</v>
+      </c>
+      <c t="s" r="K165" s="1">
+        <v>21</v>
+      </c>
+      <c r="L165" s="4">
+        <v>44145.694456018515</v>
+      </c>
+      <c r="M165" s="4">
+        <v>44175</v>
+      </c>
+      <c t="s" r="N165" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166">
+      <c t="s" r="A166" s="1">
+        <v>395</v>
+      </c>
+      <c t="s" r="B166" s="1">
+        <v>396</v>
+      </c>
+      <c t="s" r="C166" s="1">
+        <v>405</v>
+      </c>
+      <c t="s" r="D166" s="1">
+        <v>406</v>
+      </c>
+      <c t="s" r="E166" s="1">
+        <v>335</v>
+      </c>
+      <c t="s" r="F166" s="1">
+        <v>407</v>
+      </c>
+      <c r="G166" s="2">
+        <v>13.300000000000001</v>
+      </c>
+      <c t="s" r="H166" s="1">
+        <v>89</v>
+      </c>
+      <c r="I166" s="3">
+        <v>10</v>
+      </c>
+      <c r="J166" s="2">
+        <v>0</v>
+      </c>
+      <c t="s" r="K166" s="1">
+        <v>21</v>
+      </c>
+      <c r="L166" s="4">
+        <v>44146.536446759259</v>
+      </c>
+      <c r="M166" s="4">
+        <v>44176</v>
+      </c>
+      <c t="s" r="N166" s="1">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:M30"/>
+  <autoFilter ref="A3:N166"/>
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError sqref="A1:M30" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:N166" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>